--- a/record/600006.SH_20250225/prediction_results.xlsx
+++ b/record/600006.SH_20250225/prediction_results.xlsx
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.19</v>
+        <v>7.37</v>
       </c>
       <c r="C2" t="n">
-        <v>7.1</v>
+        <v>7.02</v>
       </c>
       <c r="D2" t="n">
-        <v>6.54</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.18</v>
+        <v>7.29</v>
       </c>
       <c r="C3" t="n">
-        <v>6.87</v>
+        <v>6.71</v>
       </c>
       <c r="D3" t="n">
-        <v>6.47</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.24</v>
+        <v>7.38</v>
       </c>
       <c r="C4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D4" t="n">
         <v>7.33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.59</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.33</v>
+        <v>7.59</v>
       </c>
       <c r="C5" t="n">
-        <v>7.49</v>
+        <v>7.07</v>
       </c>
       <c r="D5" t="n">
-        <v>6.7</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.35</v>
+        <v>7.58</v>
       </c>
       <c r="C6" t="n">
-        <v>7.52</v>
+        <v>6.86</v>
       </c>
       <c r="D6" t="n">
-        <v>6.61</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="7">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.38</v>
+        <v>7.54</v>
       </c>
       <c r="C7" t="n">
-        <v>7.44</v>
+        <v>7.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.58</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="8">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="C8" t="n">
-        <v>7.11</v>
+        <v>6.87</v>
       </c>
       <c r="D8" t="n">
-        <v>6.38</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>7.24</v>
       </c>
       <c r="C9" t="n">
-        <v>6.94</v>
+        <v>6.87</v>
       </c>
       <c r="D9" t="n">
-        <v>6.24</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="C10" t="n">
-        <v>6.92</v>
+        <v>6.76</v>
       </c>
       <c r="D10" t="n">
-        <v>6.25</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>7.13</v>
       </c>
       <c r="C11" t="n">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="D11" t="n">
-        <v>6.16</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="12">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="C12" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D12" t="n">
-        <v>6.1</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="13">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.96</v>
+        <v>6.99</v>
       </c>
       <c r="C13" t="n">
-        <v>6.4</v>
+        <v>6.52</v>
       </c>
       <c r="D13" t="n">
-        <v>5.97</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="14">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="C14" t="n">
-        <v>6.17</v>
+        <v>6.43</v>
       </c>
       <c r="D14" t="n">
-        <v>5.92</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="15">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.85</v>
+        <v>6.98</v>
       </c>
       <c r="C15" t="n">
-        <v>6.2</v>
+        <v>6.55</v>
       </c>
       <c r="D15" t="n">
-        <v>5.94</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="16">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.82</v>
+        <v>7.03</v>
       </c>
       <c r="C16" t="n">
-        <v>6.41</v>
+        <v>6.28</v>
       </c>
       <c r="D16" t="n">
-        <v>5.98</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.83</v>
+        <v>7.05</v>
       </c>
       <c r="C17" t="n">
-        <v>6.71</v>
+        <v>6.29</v>
       </c>
       <c r="D17" t="n">
-        <v>6.03</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="18">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D18" t="n">
         <v>6.87</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.15</v>
       </c>
     </row>
     <row r="19">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.93</v>
+        <v>7.21</v>
       </c>
       <c r="C19" t="n">
-        <v>7.34</v>
+        <v>6.59</v>
       </c>
       <c r="D19" t="n">
-        <v>6.22</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.05</v>
+        <v>7.36</v>
       </c>
       <c r="C20" t="n">
-        <v>7.36</v>
+        <v>6.85</v>
       </c>
       <c r="D20" t="n">
-        <v>6.39</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="21">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.16</v>
+        <v>7.46</v>
       </c>
       <c r="C21" t="n">
-        <v>7.45</v>
+        <v>6.9</v>
       </c>
       <c r="D21" t="n">
-        <v>6.46</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="22">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.2</v>
+        <v>7.43</v>
       </c>
       <c r="C22" t="n">
-        <v>7.17</v>
+        <v>6.94</v>
       </c>
       <c r="D22" t="n">
-        <v>6.37</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="23">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.18</v>
+        <v>7.34</v>
       </c>
       <c r="C23" t="n">
-        <v>6.88</v>
+        <v>6.6</v>
       </c>
       <c r="D23" t="n">
-        <v>6.34</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="24">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.24</v>
+        <v>7.42</v>
       </c>
       <c r="C24" t="n">
-        <v>7.34</v>
+        <v>6.64</v>
       </c>
       <c r="D24" t="n">
-        <v>6.46</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="25">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.33</v>
+        <v>7.61</v>
       </c>
       <c r="C25" t="n">
-        <v>7.48</v>
+        <v>7.01</v>
       </c>
       <c r="D25" t="n">
-        <v>6.59</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.35</v>
+        <v>7.6</v>
       </c>
       <c r="C26" t="n">
-        <v>7.56</v>
+        <v>6.82</v>
       </c>
       <c r="D26" t="n">
-        <v>6.5</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="27">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.37</v>
+        <v>7.55</v>
       </c>
       <c r="C27" t="n">
-        <v>7.43</v>
+        <v>7.03</v>
       </c>
       <c r="D27" t="n">
-        <v>6.48</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="28">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.31</v>
+        <v>7.41</v>
       </c>
       <c r="C28" t="n">
-        <v>7.13</v>
+        <v>6.85</v>
       </c>
       <c r="D28" t="n">
-        <v>6.29</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="29">
@@ -906,10 +906,10 @@
         <v>7.24</v>
       </c>
       <c r="C29" t="n">
-        <v>6.94</v>
+        <v>6.85</v>
       </c>
       <c r="D29" t="n">
-        <v>6.17</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="30">
@@ -922,10 +922,10 @@
         <v>7.2</v>
       </c>
       <c r="C30" t="n">
-        <v>6.93</v>
+        <v>6.76</v>
       </c>
       <c r="D30" t="n">
-        <v>6.19</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="31">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.13</v>
+        <v>7.14</v>
       </c>
       <c r="C31" t="n">
-        <v>6.89</v>
+        <v>6.77</v>
       </c>
       <c r="D31" t="n">
-        <v>6.1</v>
+        <v>6.48</v>
       </c>
     </row>
   </sheetData>
@@ -995,13 +995,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>6.25</v>
+        <v>6.67</v>
       </c>
       <c r="C2" t="n">
-        <v>6.34</v>
+        <v>6.58</v>
       </c>
       <c r="D2" t="n">
-        <v>5.82</v>
+        <v>6.48</v>
       </c>
       <c r="E2" t="n">
         <v>6.7</v>
@@ -1012,13 +1012,13 @@
         <v>45041</v>
       </c>
       <c r="B3" t="n">
-        <v>6.36</v>
+        <v>6.84</v>
       </c>
       <c r="C3" t="n">
-        <v>6.26</v>
+        <v>6.61</v>
       </c>
       <c r="D3" t="n">
-        <v>5.89</v>
+        <v>6.56</v>
       </c>
       <c r="E3" t="n">
         <v>6.97</v>
@@ -1029,13 +1029,13 @@
         <v>45042</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>6.98</v>
       </c>
       <c r="C4" t="n">
-        <v>6.25</v>
+        <v>6.69</v>
       </c>
       <c r="D4" t="n">
-        <v>6.09</v>
+        <v>6.73</v>
       </c>
       <c r="E4" t="n">
         <v>6.47</v>
@@ -1046,13 +1046,13 @@
         <v>45043</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6.85</v>
       </c>
       <c r="C5" t="n">
-        <v>6.29</v>
+        <v>6.47</v>
       </c>
       <c r="D5" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="E5" t="n">
         <v>6.13</v>
@@ -1063,13 +1063,13 @@
         <v>45044</v>
       </c>
       <c r="B6" t="n">
-        <v>6.41</v>
+        <v>6.57</v>
       </c>
       <c r="C6" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="D6" t="n">
-        <v>5.64</v>
+        <v>6.06</v>
       </c>
       <c r="E6" t="n">
         <v>5.99</v>
@@ -1080,13 +1080,13 @@
         <v>45047</v>
       </c>
       <c r="B7" t="n">
-        <v>6.31</v>
+        <v>6.36</v>
       </c>
       <c r="C7" t="n">
-        <v>6.13</v>
+        <v>5.9</v>
       </c>
       <c r="D7" t="n">
-        <v>5.47</v>
+        <v>5.89</v>
       </c>
       <c r="E7" t="n">
         <v>5.97</v>
@@ -1097,13 +1097,13 @@
         <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>6.22</v>
+        <v>6.24</v>
       </c>
       <c r="C8" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D8" t="n">
-        <v>5.36</v>
+        <v>5.75</v>
       </c>
       <c r="E8" t="n">
         <v>5.8</v>
@@ -1114,13 +1114,13 @@
         <v>45049</v>
       </c>
       <c r="B9" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="C9" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="D9" t="n">
-        <v>5.25</v>
+        <v>5.57</v>
       </c>
       <c r="E9" t="n">
         <v>5.81</v>
@@ -1131,13 +1131,13 @@
         <v>45050</v>
       </c>
       <c r="B10" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="C10" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D10" t="n">
-        <v>5.19</v>
+        <v>5.53</v>
       </c>
       <c r="E10" t="n">
         <v>5.69</v>
@@ -1148,13 +1148,13 @@
         <v>45051</v>
       </c>
       <c r="B11" t="n">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="C11" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="D11" t="n">
-        <v>5.11</v>
+        <v>5.47</v>
       </c>
       <c r="E11" t="n">
         <v>5.8</v>
@@ -1165,13 +1165,13 @@
         <v>45054</v>
       </c>
       <c r="B12" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="C12" t="n">
-        <v>5.9</v>
+        <v>5.75</v>
       </c>
       <c r="D12" t="n">
-        <v>5.07</v>
+        <v>5.51</v>
       </c>
       <c r="E12" t="n">
         <v>5.82</v>
@@ -1182,13 +1182,13 @@
         <v>45055</v>
       </c>
       <c r="B13" t="n">
-        <v>5.86</v>
+        <v>6.03</v>
       </c>
       <c r="C13" t="n">
-        <v>5.8</v>
+        <v>5.69</v>
       </c>
       <c r="D13" t="n">
-        <v>5.05</v>
+        <v>5.57</v>
       </c>
       <c r="E13" t="n">
         <v>5.82</v>
@@ -1199,13 +1199,13 @@
         <v>45056</v>
       </c>
       <c r="B14" t="n">
-        <v>5.85</v>
+        <v>6.04</v>
       </c>
       <c r="C14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D14" t="n">
-        <v>5.02</v>
+        <v>5.58</v>
       </c>
       <c r="E14" t="n">
         <v>5.75</v>
@@ -1216,13 +1216,13 @@
         <v>45057</v>
       </c>
       <c r="B15" t="n">
-        <v>5.82</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="D15" t="n">
-        <v>4.99</v>
+        <v>5.53</v>
       </c>
       <c r="E15" t="n">
         <v>5.69</v>
@@ -1233,13 +1233,13 @@
         <v>45058</v>
       </c>
       <c r="B16" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="C16" t="n">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="D16" t="n">
-        <v>4.87</v>
+        <v>5.27</v>
       </c>
       <c r="E16" t="n">
         <v>5.73</v>
@@ -1250,13 +1250,13 @@
         <v>45061</v>
       </c>
       <c r="B17" t="n">
-        <v>5.74</v>
+        <v>5.85</v>
       </c>
       <c r="C17" t="n">
-        <v>5.61</v>
+        <v>5.88</v>
       </c>
       <c r="D17" t="n">
-        <v>4.88</v>
+        <v>5.33</v>
       </c>
       <c r="E17" t="n">
         <v>5.63</v>
@@ -1267,13 +1267,13 @@
         <v>45062</v>
       </c>
       <c r="B18" t="n">
-        <v>5.69</v>
+        <v>5.79</v>
       </c>
       <c r="C18" t="n">
-        <v>5.47</v>
+        <v>5.7</v>
       </c>
       <c r="D18" t="n">
-        <v>4.78</v>
+        <v>5.21</v>
       </c>
       <c r="E18" t="n">
         <v>5.66</v>
@@ -1284,13 +1284,13 @@
         <v>45063</v>
       </c>
       <c r="B19" t="n">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="C19" t="n">
-        <v>5.92</v>
+        <v>5.51</v>
       </c>
       <c r="D19" t="n">
-        <v>4.76</v>
+        <v>5.24</v>
       </c>
       <c r="E19" t="n">
         <v>5.73</v>
@@ -1301,13 +1301,13 @@
         <v>45064</v>
       </c>
       <c r="B20" t="n">
-        <v>5.68</v>
+        <v>5.86</v>
       </c>
       <c r="C20" t="n">
-        <v>6.26</v>
+        <v>5.72</v>
       </c>
       <c r="D20" t="n">
-        <v>4.82</v>
+        <v>5.4</v>
       </c>
       <c r="E20" t="n">
         <v>5.71</v>
@@ -1318,13 +1318,13 @@
         <v>45065</v>
       </c>
       <c r="B21" t="n">
-        <v>5.7</v>
+        <v>5.92</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="D21" t="n">
-        <v>4.84</v>
+        <v>5.56</v>
       </c>
       <c r="E21" t="n">
         <v>5.67</v>
@@ -1335,13 +1335,13 @@
         <v>45068</v>
       </c>
       <c r="B22" t="n">
-        <v>5.68</v>
+        <v>5.84</v>
       </c>
       <c r="C22" t="n">
-        <v>5.71</v>
+        <v>6.08</v>
       </c>
       <c r="D22" t="n">
-        <v>4.78</v>
+        <v>5.59</v>
       </c>
       <c r="E22" t="n">
         <v>5.63</v>
@@ -1352,13 +1352,13 @@
         <v>45069</v>
       </c>
       <c r="B23" t="n">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="C23" t="n">
-        <v>5.49</v>
+        <v>5.73</v>
       </c>
       <c r="D23" t="n">
-        <v>4.72</v>
+        <v>5.54</v>
       </c>
       <c r="E23" t="n">
         <v>5.66</v>
@@ -1369,13 +1369,13 @@
         <v>45070</v>
       </c>
       <c r="B24" t="n">
-        <v>5.69</v>
+        <v>5.77</v>
       </c>
       <c r="C24" t="n">
-        <v>5.43</v>
+        <v>5.64</v>
       </c>
       <c r="D24" t="n">
-        <v>4.72</v>
+        <v>5.56</v>
       </c>
       <c r="E24" t="n">
         <v>5.62</v>
@@ -1386,13 +1386,13 @@
         <v>45071</v>
       </c>
       <c r="B25" t="n">
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="C25" t="n">
-        <v>5.17</v>
+        <v>5.58</v>
       </c>
       <c r="D25" t="n">
-        <v>4.67</v>
+        <v>5.58</v>
       </c>
       <c r="E25" t="n">
         <v>5.76</v>
@@ -1403,13 +1403,13 @@
         <v>45072</v>
       </c>
       <c r="B26" t="n">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="C26" t="n">
-        <v>6.02</v>
+        <v>5.88</v>
       </c>
       <c r="D26" t="n">
-        <v>4.84</v>
+        <v>5.84</v>
       </c>
       <c r="E26" t="n">
         <v>5.73</v>
@@ -1420,13 +1420,13 @@
         <v>45075</v>
       </c>
       <c r="B27" t="n">
-        <v>5.77</v>
+        <v>5.98</v>
       </c>
       <c r="C27" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D27" t="n">
-        <v>4.9</v>
+        <v>5.82</v>
       </c>
       <c r="E27" t="n">
         <v>5.73</v>
@@ -1437,13 +1437,13 @@
         <v>45076</v>
       </c>
       <c r="B28" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C28" t="n">
         <v>5.81</v>
       </c>
-      <c r="C28" t="n">
-        <v>5.75</v>
-      </c>
       <c r="D28" t="n">
-        <v>4.94</v>
+        <v>5.79</v>
       </c>
       <c r="E28" t="n">
         <v>5.83</v>
@@ -1454,13 +1454,13 @@
         <v>45077</v>
       </c>
       <c r="B29" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="C29" t="n">
-        <v>5.99</v>
+        <v>5.62</v>
       </c>
       <c r="D29" t="n">
-        <v>5.05</v>
+        <v>5.9</v>
       </c>
       <c r="E29" t="n">
         <v>5.84</v>
@@ -1471,13 +1471,13 @@
         <v>45078</v>
       </c>
       <c r="B30" t="n">
-        <v>5.93</v>
+        <v>6.13</v>
       </c>
       <c r="C30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="D30" t="n">
-        <v>5.15</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>5.81</v>
@@ -1488,13 +1488,13 @@
         <v>45079</v>
       </c>
       <c r="B31" t="n">
-        <v>5.96</v>
+        <v>6.1</v>
       </c>
       <c r="C31" t="n">
-        <v>5.9</v>
+        <v>5.37</v>
       </c>
       <c r="D31" t="n">
-        <v>5.16</v>
+        <v>5.89</v>
       </c>
       <c r="E31" t="n">
         <v>5.73</v>
@@ -1505,13 +1505,13 @@
         <v>45082</v>
       </c>
       <c r="B32" t="n">
-        <v>5.94</v>
+        <v>6.01</v>
       </c>
       <c r="C32" t="n">
-        <v>5.73</v>
+        <v>5.48</v>
       </c>
       <c r="D32" t="n">
-        <v>5.08</v>
+        <v>5.79</v>
       </c>
       <c r="E32" t="n">
         <v>5.66</v>
@@ -1522,13 +1522,13 @@
         <v>45083</v>
       </c>
       <c r="B33" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C33" t="n">
-        <v>5.6</v>
+        <v>5.35</v>
       </c>
       <c r="D33" t="n">
-        <v>4.94</v>
+        <v>5.62</v>
       </c>
       <c r="E33" t="n">
         <v>5.54</v>
@@ -1539,13 +1539,13 @@
         <v>45084</v>
       </c>
       <c r="B34" t="n">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="C34" t="n">
-        <v>5.71</v>
+        <v>5.51</v>
       </c>
       <c r="D34" t="n">
-        <v>4.78</v>
+        <v>5.43</v>
       </c>
       <c r="E34" t="n">
         <v>5.5</v>
@@ -1556,13 +1556,13 @@
         <v>45085</v>
       </c>
       <c r="B35" t="n">
-        <v>5.71</v>
+        <v>5.59</v>
       </c>
       <c r="C35" t="n">
-        <v>5.62</v>
+        <v>5.43</v>
       </c>
       <c r="D35" t="n">
-        <v>4.68</v>
+        <v>5.36</v>
       </c>
       <c r="E35" t="n">
         <v>5.36</v>
@@ -1573,13 +1573,13 @@
         <v>45086</v>
       </c>
       <c r="B36" t="n">
-        <v>5.64</v>
+        <v>5.53</v>
       </c>
       <c r="C36" t="n">
-        <v>5.47</v>
+        <v>5.55</v>
       </c>
       <c r="D36" t="n">
-        <v>4.59</v>
+        <v>5.27</v>
       </c>
       <c r="E36" t="n">
         <v>5.51</v>
@@ -1590,13 +1590,13 @@
         <v>45089</v>
       </c>
       <c r="B37" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="C37" t="n">
-        <v>5.49</v>
+        <v>5.32</v>
       </c>
       <c r="D37" t="n">
-        <v>4.62</v>
+        <v>5.34</v>
       </c>
       <c r="E37" t="n">
         <v>5.53</v>
@@ -1607,13 +1607,13 @@
         <v>45090</v>
       </c>
       <c r="B38" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="C38" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="D38" t="n">
-        <v>4.62</v>
+        <v>5.39</v>
       </c>
       <c r="E38" t="n">
         <v>5.76</v>
@@ -1624,13 +1624,13 @@
         <v>45091</v>
       </c>
       <c r="B39" t="n">
-        <v>5.64</v>
+        <v>5.82</v>
       </c>
       <c r="C39" t="n">
-        <v>5.79</v>
+        <v>5.57</v>
       </c>
       <c r="D39" t="n">
-        <v>4.79</v>
+        <v>5.63</v>
       </c>
       <c r="E39" t="n">
         <v>5.71</v>
@@ -1641,13 +1641,13 @@
         <v>45092</v>
       </c>
       <c r="B40" t="n">
-        <v>5.67</v>
+        <v>5.92</v>
       </c>
       <c r="C40" t="n">
         <v>5.81</v>
       </c>
       <c r="D40" t="n">
-        <v>4.85</v>
+        <v>5.72</v>
       </c>
       <c r="E40" t="n">
         <v>5.7</v>
@@ -1658,13 +1658,13 @@
         <v>45093</v>
       </c>
       <c r="B41" t="n">
-        <v>5.69</v>
+        <v>5.93</v>
       </c>
       <c r="C41" t="n">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="D41" t="n">
-        <v>4.89</v>
+        <v>5.71</v>
       </c>
       <c r="E41" t="n">
         <v>5.77</v>
@@ -1675,13 +1675,13 @@
         <v>45096</v>
       </c>
       <c r="B42" t="n">
-        <v>5.73</v>
+        <v>5.97</v>
       </c>
       <c r="C42" t="n">
-        <v>5.62</v>
+        <v>5.85</v>
       </c>
       <c r="D42" t="n">
-        <v>4.99</v>
+        <v>5.75</v>
       </c>
       <c r="E42" t="n">
         <v>5.87</v>
@@ -1692,13 +1692,13 @@
         <v>45097</v>
       </c>
       <c r="B43" t="n">
-        <v>5.77</v>
+        <v>6.02</v>
       </c>
       <c r="C43" t="n">
-        <v>5.61</v>
+        <v>5.56</v>
       </c>
       <c r="D43" t="n">
-        <v>5.07</v>
+        <v>5.79</v>
       </c>
       <c r="E43" t="n">
         <v>6.28</v>
@@ -1709,13 +1709,13 @@
         <v>45098</v>
       </c>
       <c r="B44" t="n">
-        <v>5.86</v>
+        <v>6.2</v>
       </c>
       <c r="C44" t="n">
-        <v>5.58</v>
+        <v>5.76</v>
       </c>
       <c r="D44" t="n">
-        <v>5.25</v>
+        <v>5.94</v>
       </c>
       <c r="E44" t="n">
         <v>6.01</v>
@@ -1726,13 +1726,13 @@
         <v>45099</v>
       </c>
       <c r="B45" t="n">
-        <v>5.86</v>
+        <v>6.2</v>
       </c>
       <c r="C45" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="D45" t="n">
-        <v>5.18</v>
+        <v>5.82</v>
       </c>
       <c r="E45" t="n">
         <v>5.86</v>
@@ -1743,13 +1743,13 @@
         <v>45100</v>
       </c>
       <c r="B46" t="n">
-        <v>5.85</v>
+        <v>6.09</v>
       </c>
       <c r="C46" t="n">
-        <v>5.68</v>
+        <v>6.06</v>
       </c>
       <c r="D46" t="n">
-        <v>5.11</v>
+        <v>5.69</v>
       </c>
       <c r="E46" t="n">
         <v>5.91</v>
@@ -1760,13 +1760,13 @@
         <v>45103</v>
       </c>
       <c r="B47" t="n">
-        <v>5.83</v>
+        <v>6.04</v>
       </c>
       <c r="C47" t="n">
-        <v>5.8</v>
+        <v>5.76</v>
       </c>
       <c r="D47" t="n">
-        <v>5.07</v>
+        <v>5.7</v>
       </c>
       <c r="E47" t="n">
         <v>5.75</v>
@@ -1777,13 +1777,13 @@
         <v>45104</v>
       </c>
       <c r="B48" t="n">
-        <v>5.78</v>
+        <v>5.97</v>
       </c>
       <c r="C48" t="n">
-        <v>5.9</v>
+        <v>5.68</v>
       </c>
       <c r="D48" t="n">
-        <v>4.98</v>
+        <v>5.62</v>
       </c>
       <c r="E48" t="n">
         <v>5.77</v>
@@ -1794,13 +1794,13 @@
         <v>45105</v>
       </c>
       <c r="B49" t="n">
-        <v>5.76</v>
+        <v>5.92</v>
       </c>
       <c r="C49" t="n">
-        <v>5.74</v>
+        <v>5.57</v>
       </c>
       <c r="D49" t="n">
-        <v>4.93</v>
+        <v>5.57</v>
       </c>
       <c r="E49" t="n">
         <v>5.71</v>
@@ -1811,13 +1811,13 @@
         <v>45106</v>
       </c>
       <c r="B50" t="n">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="C50" t="n">
-        <v>5.58</v>
+        <v>5.72</v>
       </c>
       <c r="D50" t="n">
-        <v>4.87</v>
+        <v>5.54</v>
       </c>
       <c r="E50" t="n">
         <v>5.68</v>
@@ -1828,13 +1828,13 @@
         <v>45107</v>
       </c>
       <c r="B51" t="n">
-        <v>5.72</v>
+        <v>5.83</v>
       </c>
       <c r="C51" t="n">
-        <v>5.84</v>
+        <v>5.6</v>
       </c>
       <c r="D51" t="n">
-        <v>4.82</v>
+        <v>5.44</v>
       </c>
       <c r="E51" t="n">
         <v>5.65</v>
@@ -1845,13 +1845,13 @@
         <v>45110</v>
       </c>
       <c r="B52" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C52" t="n">
-        <v>5.53</v>
+        <v>5.73</v>
       </c>
       <c r="D52" t="n">
-        <v>4.78</v>
+        <v>5.41</v>
       </c>
       <c r="E52" t="n">
         <v>5.59</v>
@@ -1862,13 +1862,13 @@
         <v>45111</v>
       </c>
       <c r="B53" t="n">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="C53" t="n">
-        <v>5.38</v>
+        <v>5.76</v>
       </c>
       <c r="D53" t="n">
-        <v>4.73</v>
+        <v>5.33</v>
       </c>
       <c r="E53" t="n">
         <v>5.57</v>
@@ -1879,13 +1879,13 @@
         <v>45112</v>
       </c>
       <c r="B54" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="C54" t="n">
-        <v>5.31</v>
+        <v>5.96</v>
       </c>
       <c r="D54" t="n">
-        <v>4.7</v>
+        <v>5.32</v>
       </c>
       <c r="E54" t="n">
         <v>5.54</v>
@@ -1896,13 +1896,13 @@
         <v>45113</v>
       </c>
       <c r="B55" t="n">
-        <v>5.61</v>
+        <v>5.73</v>
       </c>
       <c r="C55" t="n">
-        <v>5.3</v>
+        <v>5.62</v>
       </c>
       <c r="D55" t="n">
-        <v>4.67</v>
+        <v>5.29</v>
       </c>
       <c r="E55" t="n">
         <v>5.68</v>
@@ -1913,13 +1913,13 @@
         <v>45114</v>
       </c>
       <c r="B56" t="n">
-        <v>5.62</v>
+        <v>5.82</v>
       </c>
       <c r="C56" t="n">
-        <v>5.57</v>
+        <v>5.86</v>
       </c>
       <c r="D56" t="n">
-        <v>4.78</v>
+        <v>5.44</v>
       </c>
       <c r="E56" t="n">
         <v>5.58</v>
@@ -1930,13 +1930,13 @@
         <v>45117</v>
       </c>
       <c r="B57" t="n">
-        <v>5.59</v>
+        <v>5.81</v>
       </c>
       <c r="C57" t="n">
-        <v>5.22</v>
+        <v>5.93</v>
       </c>
       <c r="D57" t="n">
-        <v>4.73</v>
+        <v>5.41</v>
       </c>
       <c r="E57" t="n">
         <v>5.63</v>
@@ -1947,13 +1947,13 @@
         <v>45118</v>
       </c>
       <c r="B58" t="n">
-        <v>5.57</v>
+        <v>5.76</v>
       </c>
       <c r="C58" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D58" t="n">
         <v>5.34</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.75</v>
       </c>
       <c r="E58" t="n">
         <v>5.59</v>
@@ -1964,13 +1964,13 @@
         <v>45119</v>
       </c>
       <c r="B59" t="n">
-        <v>5.55</v>
+        <v>5.75</v>
       </c>
       <c r="C59" t="n">
-        <v>5.32</v>
+        <v>5.89</v>
       </c>
       <c r="D59" t="n">
-        <v>4.72</v>
+        <v>5.37</v>
       </c>
       <c r="E59" t="n">
         <v>5.63</v>
@@ -1981,13 +1981,13 @@
         <v>45120</v>
       </c>
       <c r="B60" t="n">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="C60" t="n">
-        <v>5.45</v>
+        <v>5.85</v>
       </c>
       <c r="D60" t="n">
-        <v>4.77</v>
+        <v>5.46</v>
       </c>
       <c r="E60" t="n">
         <v>5.69</v>
@@ -1998,13 +1998,13 @@
         <v>45121</v>
       </c>
       <c r="B61" t="n">
-        <v>5.61</v>
+        <v>5.89</v>
       </c>
       <c r="C61" t="n">
-        <v>6.04</v>
+        <v>5.85</v>
       </c>
       <c r="D61" t="n">
-        <v>4.88</v>
+        <v>5.65</v>
       </c>
       <c r="E61" t="n">
         <v>5.73</v>
@@ -2015,13 +2015,13 @@
         <v>45124</v>
       </c>
       <c r="B62" t="n">
-        <v>5.68</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D62" t="n">
-        <v>4.99</v>
+        <v>5.87</v>
       </c>
       <c r="E62" t="n">
         <v>5.59</v>
@@ -2032,13 +2032,13 @@
         <v>45125</v>
       </c>
       <c r="B63" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="C63" t="n">
-        <v>5.3</v>
+        <v>5.84</v>
       </c>
       <c r="D63" t="n">
-        <v>4.84</v>
+        <v>5.51</v>
       </c>
       <c r="E63" t="n">
         <v>5.53</v>
@@ -2049,13 +2049,13 @@
         <v>45126</v>
       </c>
       <c r="B64" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="C64" t="n">
-        <v>5.35</v>
+        <v>5.57</v>
       </c>
       <c r="D64" t="n">
-        <v>4.7</v>
+        <v>5.41</v>
       </c>
       <c r="E64" t="n">
         <v>5.56</v>
@@ -2066,13 +2066,13 @@
         <v>45127</v>
       </c>
       <c r="B65" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
       <c r="C65" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="D65" t="n">
-        <v>4.66</v>
+        <v>5.44</v>
       </c>
       <c r="E65" t="n">
         <v>5.75</v>
@@ -2083,13 +2083,13 @@
         <v>45128</v>
       </c>
       <c r="B66" t="n">
-        <v>5.67</v>
+        <v>5.78</v>
       </c>
       <c r="C66" t="n">
-        <v>5.67</v>
+        <v>5.93</v>
       </c>
       <c r="D66" t="n">
-        <v>4.84</v>
+        <v>5.71</v>
       </c>
       <c r="E66" t="n">
         <v>5.83</v>
@@ -2100,13 +2100,13 @@
         <v>45131</v>
       </c>
       <c r="B67" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="C67" t="n">
-        <v>5.7</v>
+        <v>6.13</v>
       </c>
       <c r="D67" t="n">
-        <v>4.99</v>
+        <v>5.85</v>
       </c>
       <c r="E67" t="n">
         <v>5.84</v>
@@ -2117,13 +2117,13 @@
         <v>45132</v>
       </c>
       <c r="B68" t="n">
-        <v>5.82</v>
+        <v>6.06</v>
       </c>
       <c r="C68" t="n">
-        <v>5.97</v>
+        <v>6.15</v>
       </c>
       <c r="D68" t="n">
-        <v>5.07</v>
+        <v>5.86</v>
       </c>
       <c r="E68" t="n">
         <v>5.81</v>
@@ -2134,13 +2134,13 @@
         <v>45133</v>
       </c>
       <c r="B69" t="n">
-        <v>5.88</v>
+        <v>6.08</v>
       </c>
       <c r="C69" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="D69" t="n">
-        <v>5.13</v>
+        <v>5.87</v>
       </c>
       <c r="E69" t="n">
         <v>5.85</v>
@@ -2151,13 +2151,13 @@
         <v>45134</v>
       </c>
       <c r="B70" t="n">
-        <v>5.94</v>
+        <v>6.09</v>
       </c>
       <c r="C70" t="n">
-        <v>5.85</v>
+        <v>5.78</v>
       </c>
       <c r="D70" t="n">
-        <v>5.19</v>
+        <v>5.89</v>
       </c>
       <c r="E70" t="n">
         <v>5.87</v>
@@ -2168,13 +2168,13 @@
         <v>45135</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="C71" t="n">
-        <v>6.18</v>
+        <v>5.75</v>
       </c>
       <c r="D71" t="n">
-        <v>5.27</v>
+        <v>5.95</v>
       </c>
       <c r="E71" t="n">
         <v>5.86</v>
@@ -2185,13 +2185,13 @@
         <v>45138</v>
       </c>
       <c r="B72" t="n">
-        <v>6.05</v>
+        <v>6.15</v>
       </c>
       <c r="C72" t="n">
-        <v>6.39</v>
+        <v>5.82</v>
       </c>
       <c r="D72" t="n">
-        <v>5.3</v>
+        <v>5.92</v>
       </c>
       <c r="E72" t="n">
         <v>5.8</v>
@@ -2202,13 +2202,13 @@
         <v>45139</v>
       </c>
       <c r="B73" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="C73" t="n">
-        <v>6.01</v>
+        <v>5.95</v>
       </c>
       <c r="D73" t="n">
-        <v>5.27</v>
+        <v>5.89</v>
       </c>
       <c r="E73" t="n">
         <v>5.77</v>
@@ -2219,13 +2219,13 @@
         <v>45140</v>
       </c>
       <c r="B74" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C74" t="n">
-        <v>5.93</v>
+        <v>5.58</v>
       </c>
       <c r="D74" t="n">
-        <v>5.09</v>
+        <v>5.71</v>
       </c>
       <c r="E74" t="n">
         <v>5.73</v>
@@ -2236,13 +2236,13 @@
         <v>45141</v>
       </c>
       <c r="B75" t="n">
-        <v>5.84</v>
+        <v>5.77</v>
       </c>
       <c r="C75" t="n">
-        <v>5.92</v>
+        <v>5.74</v>
       </c>
       <c r="D75" t="n">
-        <v>4.94</v>
+        <v>5.6</v>
       </c>
       <c r="E75" t="n">
         <v>5.82</v>
@@ -2256,10 +2256,10 @@
         <v>5.84</v>
       </c>
       <c r="C76" t="n">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>5.79</v>
       </c>
       <c r="E76" t="n">
         <v>5.85</v>
@@ -2270,13 +2270,13 @@
         <v>45145</v>
       </c>
       <c r="B77" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="C77" t="n">
-        <v>5.77</v>
+        <v>6.1</v>
       </c>
       <c r="D77" t="n">
-        <v>5.12</v>
+        <v>5.99</v>
       </c>
       <c r="E77" t="n">
         <v>5.86</v>
@@ -2287,13 +2287,13 @@
         <v>45146</v>
       </c>
       <c r="B78" t="n">
-        <v>5.9</v>
+        <v>6.14</v>
       </c>
       <c r="C78" t="n">
-        <v>5.82</v>
+        <v>6.14</v>
       </c>
       <c r="D78" t="n">
-        <v>5.22</v>
+        <v>6.1</v>
       </c>
       <c r="E78" t="n">
         <v>5.91</v>
@@ -2304,13 +2304,13 @@
         <v>45147</v>
       </c>
       <c r="B79" t="n">
-        <v>5.93</v>
+        <v>6.2</v>
       </c>
       <c r="C79" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D79" t="n">
-        <v>5.33</v>
+        <v>6.18</v>
       </c>
       <c r="E79" t="n">
         <v>6.03</v>
@@ -2321,13 +2321,13 @@
         <v>45148</v>
       </c>
       <c r="B80" t="n">
-        <v>5.97</v>
+        <v>6.25</v>
       </c>
       <c r="C80" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="D80" t="n">
-        <v>5.43</v>
+        <v>6.19</v>
       </c>
       <c r="E80" t="n">
         <v>6.15</v>
@@ -2338,13 +2338,13 @@
         <v>45149</v>
       </c>
       <c r="B81" t="n">
-        <v>6.03</v>
+        <v>6.33</v>
       </c>
       <c r="C81" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="D81" t="n">
-        <v>5.53</v>
+        <v>6.21</v>
       </c>
       <c r="E81" t="n">
         <v>6.05</v>
@@ -2355,13 +2355,13 @@
         <v>45152</v>
       </c>
       <c r="B82" t="n">
-        <v>6.05</v>
+        <v>6.29</v>
       </c>
       <c r="C82" t="n">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="D82" t="n">
-        <v>5.46</v>
+        <v>6.08</v>
       </c>
       <c r="E82" t="n">
         <v>6.07</v>
@@ -2372,13 +2372,13 @@
         <v>45153</v>
       </c>
       <c r="B83" t="n">
-        <v>6.07</v>
+        <v>6.27</v>
       </c>
       <c r="C83" t="n">
-        <v>5.96</v>
+        <v>6.18</v>
       </c>
       <c r="D83" t="n">
-        <v>5.47</v>
+        <v>6.1</v>
       </c>
       <c r="E83" t="n">
         <v>6.05</v>
@@ -2389,13 +2389,13 @@
         <v>45154</v>
       </c>
       <c r="B84" t="n">
-        <v>6.04</v>
+        <v>6.25</v>
       </c>
       <c r="C84" t="n">
-        <v>5.7</v>
+        <v>6.14</v>
       </c>
       <c r="D84" t="n">
-        <v>5.45</v>
+        <v>6.11</v>
       </c>
       <c r="E84" t="n">
         <v>6.01</v>
@@ -2406,13 +2406,13 @@
         <v>45155</v>
       </c>
       <c r="B85" t="n">
-        <v>5.99</v>
+        <v>6.19</v>
       </c>
       <c r="C85" t="n">
-        <v>5.74</v>
+        <v>6.05</v>
       </c>
       <c r="D85" t="n">
-        <v>5.38</v>
+        <v>6.05</v>
       </c>
       <c r="E85" t="n">
         <v>6.19</v>
@@ -2423,13 +2423,13 @@
         <v>45156</v>
       </c>
       <c r="B86" t="n">
-        <v>6.04</v>
+        <v>6.29</v>
       </c>
       <c r="C86" t="n">
-        <v>5.94</v>
+        <v>6.08</v>
       </c>
       <c r="D86" t="n">
-        <v>5.52</v>
+        <v>6.21</v>
       </c>
       <c r="E86" t="n">
         <v>6.14</v>
@@ -2440,13 +2440,13 @@
         <v>45159</v>
       </c>
       <c r="B87" t="n">
-        <v>6.07</v>
+        <v>6.37</v>
       </c>
       <c r="C87" t="n">
-        <v>5.93</v>
+        <v>6.32</v>
       </c>
       <c r="D87" t="n">
-        <v>5.54</v>
+        <v>6.27</v>
       </c>
       <c r="E87" t="n">
         <v>6.01</v>
@@ -2457,13 +2457,13 @@
         <v>45160</v>
       </c>
       <c r="B88" t="n">
-        <v>5.96</v>
+        <v>6.2</v>
       </c>
       <c r="C88" t="n">
-        <v>5.99</v>
+        <v>6.15</v>
       </c>
       <c r="D88" t="n">
-        <v>5.31</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>5.94</v>
@@ -2474,13 +2474,13 @@
         <v>45161</v>
       </c>
       <c r="B89" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="C89" t="n">
-        <v>5.92</v>
+        <v>6.24</v>
       </c>
       <c r="D89" t="n">
-        <v>5.19</v>
+        <v>5.84</v>
       </c>
       <c r="E89" t="n">
         <v>5.92</v>
@@ -2491,13 +2491,13 @@
         <v>45162</v>
       </c>
       <c r="B90" t="n">
-        <v>5.8</v>
+        <v>5.98</v>
       </c>
       <c r="C90" t="n">
-        <v>6.01</v>
+        <v>6.22</v>
       </c>
       <c r="D90" t="n">
-        <v>5.1</v>
+        <v>5.81</v>
       </c>
       <c r="E90" t="n">
         <v>6.12</v>
@@ -2508,13 +2508,13 @@
         <v>45163</v>
       </c>
       <c r="B91" t="n">
-        <v>5.85</v>
+        <v>6.14</v>
       </c>
       <c r="C91" t="n">
-        <v>5.97</v>
+        <v>6.05</v>
       </c>
       <c r="D91" t="n">
-        <v>5.25</v>
+        <v>6.04</v>
       </c>
       <c r="E91" t="n">
         <v>6.11</v>
@@ -2525,13 +2525,13 @@
         <v>45166</v>
       </c>
       <c r="B92" t="n">
-        <v>5.89</v>
+        <v>6.27</v>
       </c>
       <c r="C92" t="n">
-        <v>5.8</v>
+        <v>6.02</v>
       </c>
       <c r="D92" t="n">
-        <v>5.31</v>
+        <v>6.15</v>
       </c>
       <c r="E92" t="n">
         <v>6.04</v>
@@ -2542,13 +2542,13 @@
         <v>45167</v>
       </c>
       <c r="B93" t="n">
-        <v>5.88</v>
+        <v>6.22</v>
       </c>
       <c r="C93" t="n">
-        <v>5.81</v>
+        <v>6.2</v>
       </c>
       <c r="D93" t="n">
-        <v>5.25</v>
+        <v>6.03</v>
       </c>
       <c r="E93" t="n">
         <v>5.96</v>
@@ -2559,13 +2559,13 @@
         <v>45168</v>
       </c>
       <c r="B94" t="n">
-        <v>5.82</v>
+        <v>6.1</v>
       </c>
       <c r="C94" t="n">
-        <v>5.65</v>
+        <v>6.07</v>
       </c>
       <c r="D94" t="n">
-        <v>5.14</v>
+        <v>5.88</v>
       </c>
       <c r="E94" t="n">
         <v>5.93</v>
@@ -2576,13 +2576,13 @@
         <v>45169</v>
       </c>
       <c r="B95" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="C95" t="n">
-        <v>5.6</v>
+        <v>5.97</v>
       </c>
       <c r="D95" t="n">
-        <v>5.05</v>
+        <v>5.8</v>
       </c>
       <c r="E95" t="n">
         <v>6.2</v>
@@ -2593,13 +2593,13 @@
         <v>45170</v>
       </c>
       <c r="B96" t="n">
-        <v>5.82</v>
+        <v>6.19</v>
       </c>
       <c r="C96" t="n">
-        <v>5.77</v>
+        <v>6.17</v>
       </c>
       <c r="D96" t="n">
-        <v>5.28</v>
+        <v>6.1</v>
       </c>
       <c r="E96" t="n">
         <v>5.97</v>
@@ -2610,13 +2610,13 @@
         <v>45173</v>
       </c>
       <c r="B97" t="n">
-        <v>5.77</v>
+        <v>6.2</v>
       </c>
       <c r="C97" t="n">
-        <v>5.61</v>
+        <v>6.16</v>
       </c>
       <c r="D97" t="n">
-        <v>5.16</v>
+        <v>5.98</v>
       </c>
       <c r="E97" t="n">
         <v>6.02</v>
@@ -2627,13 +2627,13 @@
         <v>45174</v>
       </c>
       <c r="B98" t="n">
-        <v>5.76</v>
+        <v>6.12</v>
       </c>
       <c r="C98" t="n">
-        <v>5.78</v>
+        <v>6.16</v>
       </c>
       <c r="D98" t="n">
-        <v>5.15</v>
+        <v>5.88</v>
       </c>
       <c r="E98" t="n">
         <v>6.25</v>
@@ -2644,13 +2644,13 @@
         <v>45175</v>
       </c>
       <c r="B99" t="n">
-        <v>5.85</v>
+        <v>6.29</v>
       </c>
       <c r="C99" t="n">
-        <v>6.08</v>
+        <v>6.31</v>
       </c>
       <c r="D99" t="n">
-        <v>5.35</v>
+        <v>6.16</v>
       </c>
       <c r="E99" t="n">
         <v>6.41</v>
@@ -2661,13 +2661,13 @@
         <v>45176</v>
       </c>
       <c r="B100" t="n">
-        <v>5.93</v>
+        <v>6.48</v>
       </c>
       <c r="C100" t="n">
-        <v>5.98</v>
+        <v>6.32</v>
       </c>
       <c r="D100" t="n">
-        <v>5.5</v>
+        <v>6.39</v>
       </c>
       <c r="E100" t="n">
         <v>6.34</v>
@@ -2678,13 +2678,13 @@
         <v>45177</v>
       </c>
       <c r="B101" t="n">
-        <v>5.99</v>
+        <v>6.54</v>
       </c>
       <c r="C101" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="D101" t="n">
-        <v>5.54</v>
+        <v>6.35</v>
       </c>
       <c r="E101" t="n">
         <v>6.36</v>
@@ -2695,13 +2695,13 @@
         <v>45180</v>
       </c>
       <c r="B102" t="n">
-        <v>6.08</v>
+        <v>6.58</v>
       </c>
       <c r="C102" t="n">
-        <v>6.55</v>
+        <v>6.37</v>
       </c>
       <c r="D102" t="n">
-        <v>5.64</v>
+        <v>6.39</v>
       </c>
       <c r="E102" t="n">
         <v>6.28</v>
@@ -2712,13 +2712,13 @@
         <v>45181</v>
       </c>
       <c r="B103" t="n">
-        <v>6.13</v>
+        <v>6.57</v>
       </c>
       <c r="C103" t="n">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
       <c r="D103" t="n">
-        <v>5.63</v>
+        <v>6.37</v>
       </c>
       <c r="E103" t="n">
         <v>6.24</v>
@@ -2729,13 +2729,13 @@
         <v>45182</v>
       </c>
       <c r="B104" t="n">
-        <v>6.17</v>
+        <v>6.51</v>
       </c>
       <c r="C104" t="n">
-        <v>6.2</v>
+        <v>6.36</v>
       </c>
       <c r="D104" t="n">
-        <v>5.62</v>
+        <v>6.28</v>
       </c>
       <c r="E104" t="n">
         <v>6.22</v>
@@ -2746,13 +2746,13 @@
         <v>45183</v>
       </c>
       <c r="B105" t="n">
-        <v>6.19</v>
+        <v>6.45</v>
       </c>
       <c r="C105" t="n">
-        <v>6.43</v>
+        <v>6.54</v>
       </c>
       <c r="D105" t="n">
-        <v>5.58</v>
+        <v>6.21</v>
       </c>
       <c r="E105" t="n">
         <v>6.15</v>
@@ -2763,13 +2763,13 @@
         <v>45184</v>
       </c>
       <c r="B106" t="n">
-        <v>6.18</v>
+        <v>6.36</v>
       </c>
       <c r="C106" t="n">
-        <v>6.24</v>
+        <v>6.21</v>
       </c>
       <c r="D106" t="n">
-        <v>5.48</v>
+        <v>6.13</v>
       </c>
       <c r="E106" t="n">
         <v>6.06</v>
@@ -2780,13 +2780,13 @@
         <v>45187</v>
       </c>
       <c r="B107" t="n">
-        <v>6.11</v>
+        <v>6.23</v>
       </c>
       <c r="C107" t="n">
-        <v>6.08</v>
+        <v>6.39</v>
       </c>
       <c r="D107" t="n">
-        <v>5.33</v>
+        <v>5.98</v>
       </c>
       <c r="E107" t="n">
         <v>6.02</v>
@@ -2797,13 +2797,13 @@
         <v>45188</v>
       </c>
       <c r="B108" t="n">
-        <v>6.03</v>
+        <v>6.12</v>
       </c>
       <c r="C108" t="n">
-        <v>6.02</v>
+        <v>6.38</v>
       </c>
       <c r="D108" t="n">
-        <v>5.24</v>
+        <v>5.9</v>
       </c>
       <c r="E108" t="n">
         <v>5.88</v>
@@ -2814,13 +2814,13 @@
         <v>45189</v>
       </c>
       <c r="B109" t="n">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="C109" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="D109" t="n">
-        <v>5.16</v>
+        <v>5.8</v>
       </c>
       <c r="E109" t="n">
         <v>5.77</v>
@@ -2831,13 +2831,13 @@
         <v>45190</v>
       </c>
       <c r="B110" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="C110" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="D110" t="n">
-        <v>5.06</v>
+        <v>5.64</v>
       </c>
       <c r="E110" t="n">
         <v>5.72</v>
@@ -2848,13 +2848,13 @@
         <v>45191</v>
       </c>
       <c r="B111" t="n">
-        <v>5.82</v>
+        <v>5.95</v>
       </c>
       <c r="C111" t="n">
-        <v>5.67</v>
+        <v>5.81</v>
       </c>
       <c r="D111" t="n">
-        <v>4.99</v>
+        <v>5.59</v>
       </c>
       <c r="E111" t="n">
         <v>5.68</v>
@@ -2865,13 +2865,13 @@
         <v>45194</v>
       </c>
       <c r="B112" t="n">
-        <v>5.77</v>
+        <v>5.9</v>
       </c>
       <c r="C112" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="D112" t="n">
-        <v>4.91</v>
+        <v>5.49</v>
       </c>
       <c r="E112" t="n">
         <v>5.73</v>
@@ -2882,13 +2882,13 @@
         <v>45195</v>
       </c>
       <c r="B113" t="n">
-        <v>5.73</v>
+        <v>5.86</v>
       </c>
       <c r="C113" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="D113" t="n">
-        <v>4.85</v>
+        <v>5.44</v>
       </c>
       <c r="E113" t="n">
         <v>5.63</v>
@@ -2899,13 +2899,13 @@
         <v>45196</v>
       </c>
       <c r="B114" t="n">
-        <v>5.67</v>
+        <v>5.78</v>
       </c>
       <c r="C114" t="n">
-        <v>5.41</v>
+        <v>5.73</v>
       </c>
       <c r="D114" t="n">
-        <v>4.75</v>
+        <v>5.32</v>
       </c>
       <c r="E114" t="n">
         <v>5.54</v>
@@ -2916,13 +2916,13 @@
         <v>45197</v>
       </c>
       <c r="B115" t="n">
-        <v>5.62</v>
+        <v>5.71</v>
       </c>
       <c r="C115" t="n">
-        <v>5.65</v>
+        <v>5.61</v>
       </c>
       <c r="D115" t="n">
-        <v>4.68</v>
+        <v>5.24</v>
       </c>
       <c r="E115" t="n">
         <v>5.61</v>
@@ -2933,13 +2933,13 @@
         <v>45198</v>
       </c>
       <c r="B116" t="n">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="C116" t="n">
-        <v>5.53</v>
+        <v>5.68</v>
       </c>
       <c r="D116" t="n">
-        <v>4.64</v>
+        <v>5.25</v>
       </c>
       <c r="E116" t="n">
         <v>5.5</v>
@@ -2950,13 +2950,13 @@
         <v>45201</v>
       </c>
       <c r="B117" t="n">
-        <v>5.54</v>
+        <v>5.66</v>
       </c>
       <c r="C117" t="n">
-        <v>5.37</v>
+        <v>5.63</v>
       </c>
       <c r="D117" t="n">
-        <v>4.57</v>
+        <v>5.24</v>
       </c>
       <c r="E117" t="n">
         <v>5.52</v>
@@ -2967,13 +2967,13 @@
         <v>45202</v>
       </c>
       <c r="B118" t="n">
-        <v>5.49</v>
+        <v>5.63</v>
       </c>
       <c r="C118" t="n">
-        <v>5.34</v>
+        <v>5.59</v>
       </c>
       <c r="D118" t="n">
-        <v>4.53</v>
+        <v>5.23</v>
       </c>
       <c r="E118" t="n">
         <v>5.43</v>
@@ -2984,13 +2984,13 @@
         <v>45203</v>
       </c>
       <c r="B119" t="n">
-        <v>5.44</v>
+        <v>5.58</v>
       </c>
       <c r="C119" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="D119" t="n">
-        <v>4.47</v>
+        <v>5.21</v>
       </c>
       <c r="E119" t="n">
         <v>5.54</v>
@@ -3001,13 +3001,13 @@
         <v>45204</v>
       </c>
       <c r="B120" t="n">
-        <v>5.44</v>
+        <v>5.62</v>
       </c>
       <c r="C120" t="n">
-        <v>5.39</v>
+        <v>5.62</v>
       </c>
       <c r="D120" t="n">
-        <v>4.49</v>
+        <v>5.3</v>
       </c>
       <c r="E120" t="n">
         <v>5.64</v>
@@ -3018,13 +3018,13 @@
         <v>45205</v>
       </c>
       <c r="B121" t="n">
-        <v>5.47</v>
+        <v>5.75</v>
       </c>
       <c r="C121" t="n">
-        <v>5.56</v>
+        <v>5.8</v>
       </c>
       <c r="D121" t="n">
-        <v>4.57</v>
+        <v>5.51</v>
       </c>
       <c r="E121" t="n">
         <v>5.6</v>
@@ -3035,13 +3035,13 @@
         <v>45208</v>
       </c>
       <c r="B122" t="n">
-        <v>5.5</v>
+        <v>5.82</v>
       </c>
       <c r="C122" t="n">
-        <v>5.54</v>
+        <v>5.72</v>
       </c>
       <c r="D122" t="n">
-        <v>4.63</v>
+        <v>5.61</v>
       </c>
       <c r="E122" t="n">
         <v>5.51</v>
@@ -3052,13 +3052,13 @@
         <v>45209</v>
       </c>
       <c r="B123" t="n">
-        <v>5.51</v>
+        <v>5.75</v>
       </c>
       <c r="C123" t="n">
-        <v>5.02</v>
+        <v>5.57</v>
       </c>
       <c r="D123" t="n">
-        <v>4.57</v>
+        <v>5.46</v>
       </c>
       <c r="E123" t="n">
         <v>5.61</v>
@@ -3069,13 +3069,13 @@
         <v>45210</v>
       </c>
       <c r="B124" t="n">
-        <v>5.58</v>
+        <v>5.78</v>
       </c>
       <c r="C124" t="n">
-        <v>5.33</v>
+        <v>5.54</v>
       </c>
       <c r="D124" t="n">
-        <v>4.67</v>
+        <v>5.48</v>
       </c>
       <c r="E124" t="n">
         <v>5.73</v>
@@ -3086,13 +3086,13 @@
         <v>45211</v>
       </c>
       <c r="B125" t="n">
-        <v>5.66</v>
+        <v>5.9</v>
       </c>
       <c r="C125" t="n">
-        <v>5.41</v>
+        <v>5.65</v>
       </c>
       <c r="D125" t="n">
-        <v>4.78</v>
+        <v>5.62</v>
       </c>
       <c r="E125" t="n">
         <v>5.67</v>
@@ -3103,13 +3103,13 @@
         <v>45212</v>
       </c>
       <c r="B126" t="n">
-        <v>5.71</v>
+        <v>5.91</v>
       </c>
       <c r="C126" t="n">
-        <v>5.16</v>
+        <v>5.46</v>
       </c>
       <c r="D126" t="n">
-        <v>4.8</v>
+        <v>5.65</v>
       </c>
       <c r="E126" t="n">
         <v>5.68</v>
@@ -3120,13 +3120,13 @@
         <v>45215</v>
       </c>
       <c r="B127" t="n">
-        <v>5.77</v>
+        <v>5.88</v>
       </c>
       <c r="C127" t="n">
-        <v>5.29</v>
+        <v>5.62</v>
       </c>
       <c r="D127" t="n">
-        <v>4.83</v>
+        <v>5.54</v>
       </c>
       <c r="E127" t="n">
         <v>5.57</v>
@@ -3137,13 +3137,13 @@
         <v>45216</v>
       </c>
       <c r="B128" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="C128" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="D128" t="n">
-        <v>4.72</v>
+        <v>5.36</v>
       </c>
       <c r="E128" t="n">
         <v>5.57</v>
@@ -3154,13 +3154,13 @@
         <v>45217</v>
       </c>
       <c r="B129" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="C129" t="n">
-        <v>5.38</v>
+        <v>5.58</v>
       </c>
       <c r="D129" t="n">
-        <v>4.67</v>
+        <v>5.34</v>
       </c>
       <c r="E129" t="n">
         <v>5.7</v>
@@ -3171,13 +3171,13 @@
         <v>45218</v>
       </c>
       <c r="B130" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C130" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="D130" t="n">
-        <v>4.78</v>
+        <v>5.5</v>
       </c>
       <c r="E130" t="n">
         <v>5.73</v>
@@ -3188,13 +3188,13 @@
         <v>45219</v>
       </c>
       <c r="B131" t="n">
-        <v>5.87</v>
+        <v>5.95</v>
       </c>
       <c r="C131" t="n">
-        <v>5.58</v>
+        <v>5.88</v>
       </c>
       <c r="D131" t="n">
-        <v>4.91</v>
+        <v>5.75</v>
       </c>
       <c r="E131" t="n">
         <v>5.62</v>
@@ -3205,13 +3205,13 @@
         <v>45222</v>
       </c>
       <c r="B132" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C132" t="n">
-        <v>5.65</v>
+        <v>5.25</v>
       </c>
       <c r="D132" t="n">
-        <v>4.8</v>
+        <v>5.49</v>
       </c>
       <c r="E132" t="n">
         <v>5.57</v>
@@ -3222,13 +3222,13 @@
         <v>45223</v>
       </c>
       <c r="B133" t="n">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="C133" t="n">
-        <v>5.48</v>
+        <v>5.22</v>
       </c>
       <c r="D133" t="n">
-        <v>4.7</v>
+        <v>5.35</v>
       </c>
       <c r="E133" t="n">
         <v>5.62</v>
@@ -3239,13 +3239,13 @@
         <v>45224</v>
       </c>
       <c r="B134" t="n">
-        <v>5.73</v>
+        <v>5.66</v>
       </c>
       <c r="C134" t="n">
-        <v>5.57</v>
+        <v>5.23</v>
       </c>
       <c r="D134" t="n">
-        <v>4.7</v>
+        <v>5.43</v>
       </c>
       <c r="E134" t="n">
         <v>5.68</v>
@@ -3256,13 +3256,13 @@
         <v>45225</v>
       </c>
       <c r="B135" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="C135" t="n">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="D135" t="n">
-        <v>4.79</v>
+        <v>5.56</v>
       </c>
       <c r="E135" t="n">
         <v>5.65</v>
@@ -3273,13 +3273,13 @@
         <v>45226</v>
       </c>
       <c r="B136" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="C136" t="n">
-        <v>5.73</v>
+        <v>5.67</v>
       </c>
       <c r="D136" t="n">
-        <v>4.79</v>
+        <v>5.58</v>
       </c>
       <c r="E136" t="n">
         <v>5.58</v>
@@ -3290,13 +3290,13 @@
         <v>45229</v>
       </c>
       <c r="B137" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="C137" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="D137" t="n">
-        <v>4.7</v>
+        <v>5.48</v>
       </c>
       <c r="E137" t="n">
         <v>5.54</v>
@@ -3307,13 +3307,13 @@
         <v>45230</v>
       </c>
       <c r="B138" t="n">
-        <v>5.6</v>
+        <v>5.61</v>
       </c>
       <c r="C138" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="D138" t="n">
-        <v>4.63</v>
+        <v>5.37</v>
       </c>
       <c r="E138" t="n">
         <v>5.6</v>
@@ -3324,13 +3324,13 @@
         <v>45231</v>
       </c>
       <c r="B139" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="C139" t="n">
-        <v>5.56</v>
+        <v>5.47</v>
       </c>
       <c r="D139" t="n">
-        <v>4.65</v>
+        <v>5.42</v>
       </c>
       <c r="E139" t="n">
         <v>5.56</v>
@@ -3341,13 +3341,13 @@
         <v>45232</v>
       </c>
       <c r="B140" t="n">
-        <v>5.51</v>
+        <v>5.65</v>
       </c>
       <c r="C140" t="n">
-        <v>5.51</v>
+        <v>5.49</v>
       </c>
       <c r="D140" t="n">
-        <v>4.62</v>
+        <v>5.43</v>
       </c>
       <c r="E140" t="n">
         <v>5.5</v>
@@ -3358,13 +3358,13 @@
         <v>45233</v>
       </c>
       <c r="B141" t="n">
-        <v>5.46</v>
+        <v>5.6</v>
       </c>
       <c r="C141" t="n">
-        <v>5.48</v>
+        <v>5.51</v>
       </c>
       <c r="D141" t="n">
-        <v>4.56</v>
+        <v>5.32</v>
       </c>
       <c r="E141" t="n">
         <v>5.48</v>
@@ -3375,13 +3375,13 @@
         <v>45236</v>
       </c>
       <c r="B142" t="n">
-        <v>5.42</v>
+        <v>5.57</v>
       </c>
       <c r="C142" t="n">
-        <v>5.44</v>
+        <v>5.61</v>
       </c>
       <c r="D142" t="n">
-        <v>4.52</v>
+        <v>5.29</v>
       </c>
       <c r="E142" t="n">
         <v>5.56</v>
@@ -3392,13 +3392,13 @@
         <v>45237</v>
       </c>
       <c r="B143" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D143" t="n">
         <v>5.41</v>
-      </c>
-      <c r="C143" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4.59</v>
       </c>
       <c r="E143" t="n">
         <v>5.65</v>
@@ -3409,13 +3409,13 @@
         <v>45238</v>
       </c>
       <c r="B144" t="n">
-        <v>5.46</v>
+        <v>5.81</v>
       </c>
       <c r="C144" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="D144" t="n">
-        <v>4.74</v>
+        <v>5.65</v>
       </c>
       <c r="E144" t="n">
         <v>5.72</v>
@@ -3426,13 +3426,13 @@
         <v>45239</v>
       </c>
       <c r="B145" t="n">
-        <v>5.52</v>
+        <v>5.94</v>
       </c>
       <c r="C145" t="n">
-        <v>5.47</v>
+        <v>5.59</v>
       </c>
       <c r="D145" t="n">
-        <v>4.85</v>
+        <v>5.9</v>
       </c>
       <c r="E145" t="n">
         <v>5.62</v>
@@ -3443,13 +3443,13 @@
         <v>45240</v>
       </c>
       <c r="B146" t="n">
-        <v>5.53</v>
+        <v>5.89</v>
       </c>
       <c r="C146" t="n">
-        <v>5.42</v>
+        <v>5.56</v>
       </c>
       <c r="D146" t="n">
-        <v>4.81</v>
+        <v>5.65</v>
       </c>
       <c r="E146" t="n">
         <v>5.79</v>
@@ -3460,13 +3460,13 @@
         <v>45243</v>
       </c>
       <c r="B147" t="n">
-        <v>5.6</v>
+        <v>5.96</v>
       </c>
       <c r="C147" t="n">
-        <v>5.54</v>
+        <v>5.69</v>
       </c>
       <c r="D147" t="n">
-        <v>4.95</v>
+        <v>5.74</v>
       </c>
       <c r="E147" t="n">
         <v>5.84</v>
@@ -3477,13 +3477,13 @@
         <v>45244</v>
       </c>
       <c r="B148" t="n">
-        <v>5.66</v>
+        <v>6.05</v>
       </c>
       <c r="C148" t="n">
-        <v>5.42</v>
+        <v>5.69</v>
       </c>
       <c r="D148" t="n">
-        <v>5.05</v>
+        <v>5.87</v>
       </c>
       <c r="E148" t="n">
         <v>5.98</v>
@@ -3494,13 +3494,13 @@
         <v>45245</v>
       </c>
       <c r="B149" t="n">
-        <v>5.73</v>
+        <v>6.13</v>
       </c>
       <c r="C149" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="D149" t="n">
-        <v>5.17</v>
+        <v>5.86</v>
       </c>
       <c r="E149" t="n">
         <v>5.84</v>
@@ -3511,13 +3511,13 @@
         <v>45246</v>
       </c>
       <c r="B150" t="n">
-        <v>5.76</v>
+        <v>6.1</v>
       </c>
       <c r="C150" t="n">
-        <v>5.64</v>
+        <v>5.44</v>
       </c>
       <c r="D150" t="n">
-        <v>5.13</v>
+        <v>5.7</v>
       </c>
       <c r="E150" t="n">
         <v>5.9</v>
@@ -3528,13 +3528,13 @@
         <v>45247</v>
       </c>
       <c r="B151" t="n">
-        <v>5.82</v>
+        <v>6.1</v>
       </c>
       <c r="C151" t="n">
-        <v>5.73</v>
+        <v>5.57</v>
       </c>
       <c r="D151" t="n">
-        <v>5.16</v>
+        <v>5.78</v>
       </c>
       <c r="E151" t="n">
         <v>5.65</v>
@@ -3545,13 +3545,13 @@
         <v>45250</v>
       </c>
       <c r="B152" t="n">
-        <v>5.76</v>
+        <v>5.93</v>
       </c>
       <c r="C152" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D152" t="n">
         <v>5.58</v>
-      </c>
-      <c r="D152" t="n">
-        <v>4.95</v>
       </c>
       <c r="E152" t="n">
         <v>5.67</v>
@@ -3562,13 +3562,13 @@
         <v>45251</v>
       </c>
       <c r="B153" t="n">
-        <v>5.72</v>
+        <v>5.79</v>
       </c>
       <c r="C153" t="n">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="D153" t="n">
-        <v>4.88</v>
+        <v>5.48</v>
       </c>
       <c r="E153" t="n">
         <v>6.24</v>
@@ -3579,13 +3579,13 @@
         <v>45252</v>
       </c>
       <c r="B154" t="n">
-        <v>5.85</v>
+        <v>6.07</v>
       </c>
       <c r="C154" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="D154" t="n">
-        <v>5.17</v>
+        <v>5.84</v>
       </c>
       <c r="E154" t="n">
         <v>6.17</v>
@@ -3596,13 +3596,13 @@
         <v>45253</v>
       </c>
       <c r="B155" t="n">
-        <v>5.94</v>
+        <v>6.3</v>
       </c>
       <c r="C155" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="D155" t="n">
-        <v>5.27</v>
+        <v>5.96</v>
       </c>
       <c r="E155" t="n">
         <v>6.19</v>
@@ -3613,13 +3613,13 @@
         <v>45254</v>
       </c>
       <c r="B156" t="n">
-        <v>6.05</v>
+        <v>6.37</v>
       </c>
       <c r="C156" t="n">
-        <v>6.36</v>
+        <v>6.33</v>
       </c>
       <c r="D156" t="n">
-        <v>5.39</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
         <v>6.27</v>
@@ -3630,13 +3630,13 @@
         <v>45257</v>
       </c>
       <c r="B157" t="n">
-        <v>6.16</v>
+        <v>6.45</v>
       </c>
       <c r="C157" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="D157" t="n">
-        <v>5.52</v>
+        <v>6.24</v>
       </c>
       <c r="E157" t="n">
         <v>6.44</v>
@@ -3647,13 +3647,13 @@
         <v>45258</v>
       </c>
       <c r="B158" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C158" t="n">
         <v>6.28</v>
       </c>
-      <c r="C158" t="n">
-        <v>6.01</v>
-      </c>
       <c r="D158" t="n">
-        <v>5.68</v>
+        <v>6.4</v>
       </c>
       <c r="E158" t="n">
         <v>6.2</v>
@@ -3664,13 +3664,13 @@
         <v>45259</v>
       </c>
       <c r="B159" t="n">
-        <v>6.3</v>
+        <v>6.54</v>
       </c>
       <c r="C159" t="n">
-        <v>5.97</v>
+        <v>6.21</v>
       </c>
       <c r="D159" t="n">
-        <v>5.6</v>
+        <v>6.15</v>
       </c>
       <c r="E159" t="n">
         <v>6.09</v>
@@ -3681,13 +3681,13 @@
         <v>45260</v>
       </c>
       <c r="B160" t="n">
-        <v>6.29</v>
+        <v>6.43</v>
       </c>
       <c r="C160" t="n">
-        <v>5.93</v>
+        <v>6.07</v>
       </c>
       <c r="D160" t="n">
-        <v>5.54</v>
+        <v>6.06</v>
       </c>
       <c r="E160" t="n">
         <v>6.11</v>
@@ -3698,13 +3698,13 @@
         <v>45261</v>
       </c>
       <c r="B161" t="n">
-        <v>6.27</v>
+        <v>6.36</v>
       </c>
       <c r="C161" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="D161" t="n">
-        <v>5.51</v>
+        <v>6.05</v>
       </c>
       <c r="E161" t="n">
         <v>6.72</v>
@@ -3715,13 +3715,13 @@
         <v>45264</v>
       </c>
       <c r="B162" t="n">
-        <v>6.4</v>
+        <v>6.57</v>
       </c>
       <c r="C162" t="n">
-        <v>6.11</v>
+        <v>6.64</v>
       </c>
       <c r="D162" t="n">
-        <v>5.81</v>
+        <v>6.38</v>
       </c>
       <c r="E162" t="n">
         <v>6.5</v>
@@ -3732,13 +3732,13 @@
         <v>45265</v>
       </c>
       <c r="B163" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C163" t="n">
         <v>6.41</v>
       </c>
-      <c r="C163" t="n">
-        <v>6.18</v>
-      </c>
       <c r="D163" t="n">
-        <v>5.77</v>
+        <v>6.42</v>
       </c>
       <c r="E163" t="n">
         <v>6.55</v>
@@ -3749,13 +3749,13 @@
         <v>45266</v>
       </c>
       <c r="B164" t="n">
-        <v>6.46</v>
+        <v>6.69</v>
       </c>
       <c r="C164" t="n">
-        <v>6.37</v>
+        <v>6.28</v>
       </c>
       <c r="D164" t="n">
-        <v>5.84</v>
+        <v>6.48</v>
       </c>
       <c r="E164" t="n">
         <v>6.68</v>
@@ -3766,13 +3766,13 @@
         <v>45267</v>
       </c>
       <c r="B165" t="n">
-        <v>6.55</v>
+        <v>6.82</v>
       </c>
       <c r="C165" t="n">
-        <v>6.53</v>
+        <v>6.94</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>6.73</v>
       </c>
       <c r="E165" t="n">
         <v>6.68</v>
@@ -3783,13 +3783,13 @@
         <v>45268</v>
       </c>
       <c r="B166" t="n">
-        <v>6.63</v>
+        <v>6.93</v>
       </c>
       <c r="C166" t="n">
-        <v>6.45</v>
+        <v>7.06</v>
       </c>
       <c r="D166" t="n">
-        <v>6.1</v>
+        <v>6.82</v>
       </c>
       <c r="E166" t="n">
         <v>6.5</v>
@@ -3800,13 +3800,13 @@
         <v>45271</v>
       </c>
       <c r="B167" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="D167" t="n">
         <v>6.66</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.06</v>
       </c>
       <c r="E167" t="n">
         <v>6.4</v>
@@ -3817,13 +3817,13 @@
         <v>45272</v>
       </c>
       <c r="B168" t="n">
-        <v>6.64</v>
+        <v>6.73</v>
       </c>
       <c r="C168" t="n">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
       <c r="D168" t="n">
-        <v>5.94</v>
+        <v>6.46</v>
       </c>
       <c r="E168" t="n">
         <v>6.49</v>
@@ -3834,13 +3834,13 @@
         <v>45273</v>
       </c>
       <c r="B169" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="C169" t="n">
-        <v>6.57</v>
+        <v>6.8</v>
       </c>
       <c r="D169" t="n">
-        <v>5.97</v>
+        <v>6.52</v>
       </c>
       <c r="E169" t="n">
         <v>6.55</v>
@@ -3851,13 +3851,13 @@
         <v>45274</v>
       </c>
       <c r="B170" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="C170" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
       <c r="D170" t="n">
-        <v>5.94</v>
+        <v>6.5</v>
       </c>
       <c r="E170" t="n">
         <v>6.52</v>
@@ -3871,10 +3871,10 @@
         <v>6.64</v>
       </c>
       <c r="C171" t="n">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="D171" t="n">
-        <v>5.9</v>
+        <v>6.49</v>
       </c>
       <c r="E171" t="n">
         <v>6.45</v>
@@ -3885,13 +3885,13 @@
         <v>45278</v>
       </c>
       <c r="B172" t="n">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="C172" t="n">
-        <v>6.15</v>
+        <v>6.26</v>
       </c>
       <c r="D172" t="n">
-        <v>5.79</v>
+        <v>6.4</v>
       </c>
       <c r="E172" t="n">
         <v>6.54</v>
@@ -3902,13 +3902,13 @@
         <v>45279</v>
       </c>
       <c r="B173" t="n">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C173" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="D173" t="n">
-        <v>5.89</v>
+        <v>6.59</v>
       </c>
       <c r="E173" t="n">
         <v>6.52</v>
@@ -3919,13 +3919,13 @@
         <v>45280</v>
       </c>
       <c r="B174" t="n">
-        <v>6.51</v>
+        <v>6.63</v>
       </c>
       <c r="C174" t="n">
-        <v>6.26</v>
+        <v>6.37</v>
       </c>
       <c r="D174" t="n">
-        <v>5.86</v>
+        <v>6.69</v>
       </c>
       <c r="E174" t="n">
         <v>6.46</v>
@@ -3936,13 +3936,13 @@
         <v>45281</v>
       </c>
       <c r="B175" t="n">
-        <v>6.48</v>
+        <v>6.61</v>
       </c>
       <c r="C175" t="n">
-        <v>6.34</v>
+        <v>6.24</v>
       </c>
       <c r="D175" t="n">
-        <v>5.85</v>
+        <v>6.65</v>
       </c>
       <c r="E175" t="n">
         <v>6.2</v>
@@ -3953,13 +3953,13 @@
         <v>45282</v>
       </c>
       <c r="B176" t="n">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="C176" t="n">
-        <v>6.09</v>
+        <v>6.27</v>
       </c>
       <c r="D176" t="n">
-        <v>5.61</v>
+        <v>6.19</v>
       </c>
       <c r="E176" t="n">
         <v>6.59</v>
@@ -3970,13 +3970,13 @@
         <v>45285</v>
       </c>
       <c r="B177" t="n">
-        <v>6.46</v>
+        <v>6.59</v>
       </c>
       <c r="C177" t="n">
-        <v>6.27</v>
+        <v>6.57</v>
       </c>
       <c r="D177" t="n">
-        <v>5.88</v>
+        <v>6.57</v>
       </c>
       <c r="E177" t="n">
         <v>6.41</v>
@@ -3987,13 +3987,13 @@
         <v>45286</v>
       </c>
       <c r="B178" t="n">
-        <v>6.46</v>
+        <v>6.65</v>
       </c>
       <c r="C178" t="n">
-        <v>6.18</v>
+        <v>6.51</v>
       </c>
       <c r="D178" t="n">
-        <v>5.82</v>
+        <v>6.61</v>
       </c>
       <c r="E178" t="n">
         <v>6.88</v>
@@ -4004,13 +4004,13 @@
         <v>45287</v>
       </c>
       <c r="B179" t="n">
-        <v>6.57</v>
+        <v>6.79</v>
       </c>
       <c r="C179" t="n">
-        <v>6.89</v>
+        <v>6.73</v>
       </c>
       <c r="D179" t="n">
-        <v>6.06</v>
+        <v>6.87</v>
       </c>
       <c r="E179" t="n">
         <v>7.41</v>
@@ -4021,13 +4021,13 @@
         <v>45288</v>
       </c>
       <c r="B180" t="n">
-        <v>6.71</v>
+        <v>7.1</v>
       </c>
       <c r="C180" t="n">
-        <v>6.71</v>
+        <v>6.84</v>
       </c>
       <c r="D180" t="n">
-        <v>6.35</v>
+        <v>7.48</v>
       </c>
       <c r="E180" t="n">
         <v>7.24</v>
@@ -4038,13 +4038,13 @@
         <v>45289</v>
       </c>
       <c r="B181" t="n">
-        <v>6.81</v>
+        <v>7.26</v>
       </c>
       <c r="C181" t="n">
-        <v>7.07</v>
+        <v>7.29</v>
       </c>
       <c r="D181" t="n">
-        <v>6.44</v>
+        <v>7.51</v>
       </c>
       <c r="E181" t="n">
         <v>6.85</v>
@@ -4055,13 +4055,13 @@
         <v>45292</v>
       </c>
       <c r="B182" t="n">
-        <v>6.83</v>
+        <v>7.16</v>
       </c>
       <c r="C182" t="n">
-        <v>7.08</v>
+        <v>6.89</v>
       </c>
       <c r="D182" t="n">
-        <v>6.32</v>
+        <v>7.21</v>
       </c>
       <c r="E182" t="n">
         <v>6.65</v>
@@ -4072,13 +4072,13 @@
         <v>45293</v>
       </c>
       <c r="B183" t="n">
-        <v>6.81</v>
+        <v>6.99</v>
       </c>
       <c r="C183" t="n">
-        <v>6.96</v>
+        <v>6.69</v>
       </c>
       <c r="D183" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="E183" t="n">
         <v>6.58</v>
@@ -4089,13 +4089,13 @@
         <v>45294</v>
       </c>
       <c r="B184" t="n">
-        <v>6.78</v>
+        <v>6.88</v>
       </c>
       <c r="C184" t="n">
-        <v>6.77</v>
+        <v>6.53</v>
       </c>
       <c r="D184" t="n">
-        <v>6.11</v>
+        <v>6.79</v>
       </c>
       <c r="E184" t="n">
         <v>6.45</v>
@@ -4106,13 +4106,13 @@
         <v>45295</v>
       </c>
       <c r="B185" t="n">
-        <v>6.7</v>
+        <v>6.74</v>
       </c>
       <c r="C185" t="n">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
       <c r="D185" t="n">
-        <v>5.94</v>
+        <v>6.55</v>
       </c>
       <c r="E185" t="n">
         <v>6.43</v>
@@ -4126,10 +4126,10 @@
         <v>6.62</v>
       </c>
       <c r="C186" t="n">
-        <v>6.94</v>
+        <v>6.35</v>
       </c>
       <c r="D186" t="n">
-        <v>5.84</v>
+        <v>6.38</v>
       </c>
       <c r="E186" t="n">
         <v>6.25</v>
@@ -4143,10 +4143,10 @@
         <v>6.52</v>
       </c>
       <c r="C187" t="n">
-        <v>7.03</v>
+        <v>6.27</v>
       </c>
       <c r="D187" t="n">
-        <v>5.71</v>
+        <v>6.22</v>
       </c>
       <c r="E187" t="n">
         <v>6.09</v>
@@ -4157,13 +4157,13 @@
         <v>45300</v>
       </c>
       <c r="B188" t="n">
-        <v>6.43</v>
+        <v>6.44</v>
       </c>
       <c r="C188" t="n">
-        <v>6.8</v>
+        <v>6.35</v>
       </c>
       <c r="D188" t="n">
-        <v>5.63</v>
+        <v>6.1</v>
       </c>
       <c r="E188" t="n">
         <v>6.17</v>
@@ -4174,13 +4174,13 @@
         <v>45301</v>
       </c>
       <c r="B189" t="n">
-        <v>6.35</v>
+        <v>6.4</v>
       </c>
       <c r="C189" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="D189" t="n">
-        <v>5.57</v>
+        <v>6.04</v>
       </c>
       <c r="E189" t="n">
         <v>6.2</v>
@@ -4191,13 +4191,13 @@
         <v>45302</v>
       </c>
       <c r="B190" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="C190" t="n">
-        <v>6.41</v>
+        <v>6.23</v>
       </c>
       <c r="D190" t="n">
-        <v>5.54</v>
+        <v>6.11</v>
       </c>
       <c r="E190" t="n">
         <v>6.17</v>
@@ -4208,13 +4208,13 @@
         <v>45303</v>
       </c>
       <c r="B191" t="n">
-        <v>6.25</v>
+        <v>6.38</v>
       </c>
       <c r="C191" t="n">
-        <v>6.2</v>
+        <v>6.28</v>
       </c>
       <c r="D191" t="n">
-        <v>5.48</v>
+        <v>6.02</v>
       </c>
       <c r="E191" t="n">
         <v>6.08</v>
@@ -4225,13 +4225,13 @@
         <v>45306</v>
       </c>
       <c r="B192" t="n">
-        <v>6.17</v>
+        <v>6.3</v>
       </c>
       <c r="C192" t="n">
-        <v>5.88</v>
+        <v>6.24</v>
       </c>
       <c r="D192" t="n">
-        <v>5.39</v>
+        <v>5.89</v>
       </c>
       <c r="E192" t="n">
         <v>6.04</v>
@@ -4242,13 +4242,13 @@
         <v>45307</v>
       </c>
       <c r="B193" t="n">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="C193" t="n">
-        <v>5.92</v>
+        <v>6.31</v>
       </c>
       <c r="D193" t="n">
-        <v>5.3</v>
+        <v>5.71</v>
       </c>
       <c r="E193" t="n">
         <v>5.98</v>
@@ -4259,13 +4259,13 @@
         <v>45308</v>
       </c>
       <c r="B194" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="C194" t="n">
-        <v>6.13</v>
+        <v>6.22</v>
       </c>
       <c r="D194" t="n">
-        <v>5.19</v>
+        <v>5.52</v>
       </c>
       <c r="E194" t="n">
         <v>5.9</v>
@@ -4276,13 +4276,13 @@
         <v>45309</v>
       </c>
       <c r="B195" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="C195" t="n">
-        <v>5.66</v>
+        <v>6.25</v>
       </c>
       <c r="D195" t="n">
-        <v>5.11</v>
+        <v>5.45</v>
       </c>
       <c r="E195" t="n">
         <v>5.78</v>
@@ -4293,13 +4293,13 @@
         <v>45310</v>
       </c>
       <c r="B196" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>6.02</v>
+        <v>5.91</v>
       </c>
       <c r="D196" t="n">
-        <v>5.03</v>
+        <v>5.4</v>
       </c>
       <c r="E196" t="n">
         <v>5.8</v>
@@ -4310,13 +4310,13 @@
         <v>45313</v>
       </c>
       <c r="B197" t="n">
-        <v>5.83</v>
+        <v>5.96</v>
       </c>
       <c r="C197" t="n">
         <v>5.86</v>
       </c>
       <c r="D197" t="n">
-        <v>4.97</v>
+        <v>5.41</v>
       </c>
       <c r="E197" t="n">
         <v>5.72</v>
@@ -4327,13 +4327,13 @@
         <v>45314</v>
       </c>
       <c r="B198" t="n">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
       <c r="C198" t="n">
-        <v>6.03</v>
+        <v>5.64</v>
       </c>
       <c r="D198" t="n">
-        <v>4.91</v>
+        <v>5.38</v>
       </c>
       <c r="E198" t="n">
         <v>5.75</v>
@@ -4344,13 +4344,13 @@
         <v>45315</v>
       </c>
       <c r="B199" t="n">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="C199" t="n">
-        <v>5.92</v>
+        <v>5.68</v>
       </c>
       <c r="D199" t="n">
-        <v>4.86</v>
+        <v>5.45</v>
       </c>
       <c r="E199" t="n">
         <v>5.66</v>
@@ -4361,13 +4361,13 @@
         <v>45316</v>
       </c>
       <c r="B200" t="n">
-        <v>5.71</v>
+        <v>5.85</v>
       </c>
       <c r="C200" t="n">
-        <v>5.87</v>
+        <v>5.28</v>
       </c>
       <c r="D200" t="n">
-        <v>4.79</v>
+        <v>5.5</v>
       </c>
       <c r="E200" t="n">
         <v>5.72</v>
@@ -4378,13 +4378,13 @@
         <v>45317</v>
       </c>
       <c r="B201" t="n">
-        <v>5.71</v>
+        <v>5.86</v>
       </c>
       <c r="C201" t="n">
-        <v>5.69</v>
+        <v>5.29</v>
       </c>
       <c r="D201" t="n">
-        <v>4.76</v>
+        <v>5.52</v>
       </c>
       <c r="E201" t="n">
         <v>5.78</v>
@@ -4395,13 +4395,13 @@
         <v>45320</v>
       </c>
       <c r="B202" t="n">
-        <v>5.72</v>
+        <v>5.93</v>
       </c>
       <c r="C202" t="n">
-        <v>5.84</v>
+        <v>5.22</v>
       </c>
       <c r="D202" t="n">
-        <v>4.79</v>
+        <v>5.66</v>
       </c>
       <c r="E202" t="n">
         <v>5.77</v>
@@ -4412,13 +4412,13 @@
         <v>45321</v>
       </c>
       <c r="B203" t="n">
-        <v>5.73</v>
+        <v>5.95</v>
       </c>
       <c r="C203" t="n">
-        <v>5.67</v>
+        <v>5.04</v>
       </c>
       <c r="D203" t="n">
-        <v>4.8</v>
+        <v>5.66</v>
       </c>
       <c r="E203" t="n">
         <v>5.83</v>
@@ -4429,13 +4429,13 @@
         <v>45322</v>
       </c>
       <c r="B204" t="n">
-        <v>5.79</v>
+        <v>6.04</v>
       </c>
       <c r="C204" t="n">
-        <v>5.89</v>
+        <v>5.22</v>
       </c>
       <c r="D204" t="n">
-        <v>4.91</v>
+        <v>5.74</v>
       </c>
       <c r="E204" t="n">
         <v>5.81</v>
@@ -4446,13 +4446,13 @@
         <v>45323</v>
       </c>
       <c r="B205" t="n">
-        <v>5.83</v>
+        <v>6.08</v>
       </c>
       <c r="C205" t="n">
-        <v>5.85</v>
+        <v>5.24</v>
       </c>
       <c r="D205" t="n">
-        <v>4.95</v>
+        <v>5.77</v>
       </c>
       <c r="E205" t="n">
         <v>5.74</v>
@@ -4463,13 +4463,13 @@
         <v>45324</v>
       </c>
       <c r="B206" t="n">
-        <v>5.84</v>
+        <v>5.98</v>
       </c>
       <c r="C206" t="n">
-        <v>5.59</v>
+        <v>5.18</v>
       </c>
       <c r="D206" t="n">
-        <v>4.89</v>
+        <v>5.65</v>
       </c>
       <c r="E206" t="n">
         <v>5.67</v>
@@ -4480,13 +4480,13 @@
         <v>45327</v>
       </c>
       <c r="B207" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C207" t="n">
-        <v>5.51</v>
+        <v>5.25</v>
       </c>
       <c r="D207" t="n">
-        <v>4.76</v>
+        <v>5.48</v>
       </c>
       <c r="E207" t="n">
         <v>5.56</v>
@@ -4497,13 +4497,13 @@
         <v>45328</v>
       </c>
       <c r="B208" t="n">
-        <v>5.74</v>
+        <v>5.67</v>
       </c>
       <c r="C208" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="D208" t="n">
-        <v>4.66</v>
+        <v>5.4</v>
       </c>
       <c r="E208" t="n">
         <v>5.57</v>
@@ -4514,13 +4514,13 @@
         <v>45329</v>
       </c>
       <c r="B209" t="n">
-        <v>5.71</v>
+        <v>5.63</v>
       </c>
       <c r="C209" t="n">
-        <v>5.5</v>
+        <v>5.11</v>
       </c>
       <c r="D209" t="n">
-        <v>4.61</v>
+        <v>5.41</v>
       </c>
       <c r="E209" t="n">
         <v>5.52</v>
@@ -4531,13 +4531,13 @@
         <v>45330</v>
       </c>
       <c r="B210" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="C210" t="n">
-        <v>5.62</v>
+        <v>5.22</v>
       </c>
       <c r="D210" t="n">
-        <v>4.56</v>
+        <v>5.37</v>
       </c>
       <c r="E210" t="n">
         <v>5.62</v>
@@ -4548,13 +4548,13 @@
         <v>45331</v>
       </c>
       <c r="B211" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C211" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="D211" t="n">
-        <v>4.59</v>
+        <v>5.41</v>
       </c>
       <c r="E211" t="n">
         <v>5.56</v>
@@ -4565,13 +4565,13 @@
         <v>45334</v>
       </c>
       <c r="B212" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="C212" t="n">
-        <v>5.49</v>
+        <v>5.57</v>
       </c>
       <c r="D212" t="n">
-        <v>4.56</v>
+        <v>5.4</v>
       </c>
       <c r="E212" t="n">
         <v>5.57</v>
@@ -4582,13 +4582,13 @@
         <v>45335</v>
       </c>
       <c r="B213" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="C213" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="D213" t="n">
-        <v>4.55</v>
+        <v>5.36</v>
       </c>
       <c r="E213" t="n">
         <v>5.6</v>
@@ -4599,13 +4599,13 @@
         <v>45336</v>
       </c>
       <c r="B214" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="C214" t="n">
-        <v>5.34</v>
+        <v>5.66</v>
       </c>
       <c r="D214" t="n">
-        <v>4.59</v>
+        <v>5.43</v>
       </c>
       <c r="E214" t="n">
         <v>5.58</v>
@@ -4616,13 +4616,13 @@
         <v>45337</v>
       </c>
       <c r="B215" t="n">
-        <v>5.63</v>
+        <v>5.77</v>
       </c>
       <c r="C215" t="n">
-        <v>5.41</v>
+        <v>5.66</v>
       </c>
       <c r="D215" t="n">
-        <v>4.6</v>
+        <v>5.43</v>
       </c>
       <c r="E215" t="n">
         <v>5.42</v>
@@ -4633,13 +4633,13 @@
         <v>45338</v>
       </c>
       <c r="B216" t="n">
-        <v>5.58</v>
+        <v>5.65</v>
       </c>
       <c r="C216" t="n">
-        <v>5.16</v>
+        <v>5.63</v>
       </c>
       <c r="D216" t="n">
-        <v>4.5</v>
+        <v>5.26</v>
       </c>
       <c r="E216" t="n">
         <v>5.35</v>
@@ -4650,13 +4650,13 @@
         <v>45341</v>
       </c>
       <c r="B217" t="n">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="C217" t="n">
-        <v>5.19</v>
+        <v>5.37</v>
       </c>
       <c r="D217" t="n">
-        <v>4.44</v>
+        <v>5.17</v>
       </c>
       <c r="E217" t="n">
         <v>5.89</v>
@@ -4667,13 +4667,13 @@
         <v>45342</v>
       </c>
       <c r="B218" t="n">
-        <v>5.61</v>
+        <v>5.82</v>
       </c>
       <c r="C218" t="n">
-        <v>5.6</v>
+        <v>5.84</v>
       </c>
       <c r="D218" t="n">
-        <v>4.69</v>
+        <v>5.45</v>
       </c>
       <c r="E218" t="n">
         <v>6.03</v>
@@ -4684,13 +4684,13 @@
         <v>45343</v>
       </c>
       <c r="B219" t="n">
-        <v>5.67</v>
+        <v>6.11</v>
       </c>
       <c r="C219" t="n">
-        <v>6.07</v>
+        <v>5.93</v>
       </c>
       <c r="D219" t="n">
-        <v>4.86</v>
+        <v>5.87</v>
       </c>
       <c r="E219" t="n">
         <v>6.4</v>
@@ -4701,13 +4701,13 @@
         <v>45344</v>
       </c>
       <c r="B220" t="n">
-        <v>5.77</v>
+        <v>6.34</v>
       </c>
       <c r="C220" t="n">
-        <v>6.28</v>
+        <v>6.11</v>
       </c>
       <c r="D220" t="n">
-        <v>5.09</v>
+        <v>6.23</v>
       </c>
       <c r="E220" t="n">
         <v>6.2</v>
@@ -4718,13 +4718,13 @@
         <v>45345</v>
       </c>
       <c r="B221" t="n">
-        <v>5.83</v>
+        <v>6.41</v>
       </c>
       <c r="C221" t="n">
-        <v>5.94</v>
+        <v>6.24</v>
       </c>
       <c r="D221" t="n">
-        <v>5.15</v>
+        <v>5.98</v>
       </c>
       <c r="E221" t="n">
         <v>5.99</v>
@@ -4735,13 +4735,13 @@
         <v>45348</v>
       </c>
       <c r="B222" t="n">
-        <v>5.87</v>
+        <v>6.36</v>
       </c>
       <c r="C222" t="n">
-        <v>5.78</v>
+        <v>6.1</v>
       </c>
       <c r="D222" t="n">
-        <v>5.16</v>
+        <v>5.88</v>
       </c>
       <c r="E222" t="n">
         <v>5.63</v>
@@ -4752,13 +4752,13 @@
         <v>45349</v>
       </c>
       <c r="B223" t="n">
-        <v>5.84</v>
+        <v>6.17</v>
       </c>
       <c r="C223" t="n">
-        <v>5.56</v>
+        <v>5.59</v>
       </c>
       <c r="D223" t="n">
-        <v>5.02</v>
+        <v>5.6</v>
       </c>
       <c r="E223" t="n">
         <v>5.67</v>
@@ -4769,13 +4769,13 @@
         <v>45350</v>
       </c>
       <c r="B224" t="n">
-        <v>5.85</v>
+        <v>6.06</v>
       </c>
       <c r="C224" t="n">
-        <v>5.49</v>
+        <v>5.08</v>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>5.51</v>
       </c>
       <c r="E224" t="n">
         <v>5.42</v>
@@ -4786,13 +4786,13 @@
         <v>45351</v>
       </c>
       <c r="B225" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="C225" t="n">
-        <v>5.45</v>
+        <v>5.3</v>
       </c>
       <c r="D225" t="n">
-        <v>4.86</v>
+        <v>5.35</v>
       </c>
       <c r="E225" t="n">
         <v>5.47</v>
@@ -4803,13 +4803,13 @@
         <v>45352</v>
       </c>
       <c r="B226" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="C226" t="n">
-        <v>5.43</v>
+        <v>5.48</v>
       </c>
       <c r="D226" t="n">
-        <v>4.8</v>
+        <v>5.23</v>
       </c>
       <c r="E226" t="n">
         <v>5.35</v>
@@ -4820,13 +4820,13 @@
         <v>45355</v>
       </c>
       <c r="B227" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="C227" t="n">
-        <v>5.53</v>
+        <v>5.71</v>
       </c>
       <c r="D227" t="n">
-        <v>4.72</v>
+        <v>5.14</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -4837,13 +4837,13 @@
         <v>45356</v>
       </c>
       <c r="B228" t="n">
-        <v>5.73</v>
+        <v>5.6</v>
       </c>
       <c r="C228" t="n">
-        <v>5.68</v>
+        <v>5.48</v>
       </c>
       <c r="D228" t="n">
-        <v>4.6</v>
+        <v>4.98</v>
       </c>
       <c r="E228" t="n">
         <v>5.24</v>
@@ -4854,13 +4854,13 @@
         <v>45357</v>
       </c>
       <c r="B229" t="n">
-        <v>5.72</v>
+        <v>5.6</v>
       </c>
       <c r="C229" t="n">
-        <v>5.38</v>
+        <v>5.47</v>
       </c>
       <c r="D229" t="n">
-        <v>4.62</v>
+        <v>5.03</v>
       </c>
       <c r="E229" t="n">
         <v>5.5</v>
@@ -4871,13 +4871,13 @@
         <v>45358</v>
       </c>
       <c r="B230" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C230" t="n">
-        <v>5.67</v>
+        <v>5.73</v>
       </c>
       <c r="D230" t="n">
-        <v>4.68</v>
+        <v>5.19</v>
       </c>
       <c r="E230" t="n">
         <v>5.56</v>
@@ -4888,13 +4888,13 @@
         <v>45359</v>
       </c>
       <c r="B231" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="C231" t="n">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="D231" t="n">
-        <v>4.8</v>
+        <v>5.41</v>
       </c>
       <c r="E231" t="n">
         <v>5.57</v>
@@ -4905,13 +4905,13 @@
         <v>45362</v>
       </c>
       <c r="B232" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D232" t="n">
-        <v>4.85</v>
+        <v>5.44</v>
       </c>
       <c r="E232" t="n">
         <v>5.54</v>
@@ -4922,13 +4922,13 @@
         <v>45363</v>
       </c>
       <c r="B233" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C233" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="D233" t="n">
-        <v>4.92</v>
+        <v>5.45</v>
       </c>
       <c r="E233" t="n">
         <v>5.92</v>
@@ -4942,10 +4942,10 @@
         <v>5.93</v>
       </c>
       <c r="C234" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="D234" t="n">
-        <v>5.05</v>
+        <v>5.61</v>
       </c>
       <c r="E234" t="n">
         <v>5.87</v>
@@ -4956,13 +4956,13 @@
         <v>45365</v>
       </c>
       <c r="B235" t="n">
-        <v>5.99</v>
+        <v>6.03</v>
       </c>
       <c r="C235" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="D235" t="n">
-        <v>5.13</v>
+        <v>5.73</v>
       </c>
       <c r="E235" t="n">
         <v>5.92</v>
@@ -4973,13 +4973,13 @@
         <v>45366</v>
       </c>
       <c r="B236" t="n">
-        <v>6.06</v>
+        <v>6.11</v>
       </c>
       <c r="C236" t="n">
-        <v>5.75</v>
+        <v>6.22</v>
       </c>
       <c r="D236" t="n">
-        <v>5.22</v>
+        <v>5.91</v>
       </c>
       <c r="E236" t="n">
         <v>5.95</v>
@@ -4990,13 +4990,13 @@
         <v>45369</v>
       </c>
       <c r="B237" t="n">
-        <v>6.14</v>
+        <v>6.23</v>
       </c>
       <c r="C237" t="n">
-        <v>5.73</v>
+        <v>6.36</v>
       </c>
       <c r="D237" t="n">
-        <v>5.36</v>
+        <v>6.15</v>
       </c>
       <c r="E237" t="n">
         <v>6.09</v>
@@ -5007,13 +5007,13 @@
         <v>45370</v>
       </c>
       <c r="B238" t="n">
-        <v>6.23</v>
+        <v>6.3</v>
       </c>
       <c r="C238" t="n">
-        <v>5.95</v>
+        <v>6.45</v>
       </c>
       <c r="D238" t="n">
-        <v>5.47</v>
+        <v>6.25</v>
       </c>
       <c r="E238" t="n">
         <v>5.79</v>
@@ -5027,10 +5027,10 @@
         <v>6.22</v>
       </c>
       <c r="C239" t="n">
-        <v>5.77</v>
+        <v>6.46</v>
       </c>
       <c r="D239" t="n">
-        <v>5.32</v>
+        <v>5.91</v>
       </c>
       <c r="E239" t="n">
         <v>6.07</v>
@@ -5041,13 +5041,13 @@
         <v>45372</v>
       </c>
       <c r="B240" t="n">
-        <v>6.34</v>
+        <v>6.3</v>
       </c>
       <c r="C240" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="D240" t="n">
         <v>6.28</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5.49</v>
       </c>
       <c r="E240" t="n">
         <v>6.05</v>
@@ -5058,13 +5058,13 @@
         <v>45373</v>
       </c>
       <c r="B241" t="n">
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="C241" t="n">
-        <v>6.29</v>
+        <v>6.74</v>
       </c>
       <c r="D241" t="n">
-        <v>5.54</v>
+        <v>6.33</v>
       </c>
       <c r="E241" t="n">
         <v>5.95</v>
@@ -5075,13 +5075,13 @@
         <v>45376</v>
       </c>
       <c r="B242" t="n">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="C242" t="n">
-        <v>6.02</v>
+        <v>6.66</v>
       </c>
       <c r="D242" t="n">
-        <v>5.47</v>
+        <v>6.21</v>
       </c>
       <c r="E242" t="n">
         <v>6.55</v>
@@ -5092,13 +5092,13 @@
         <v>45377</v>
       </c>
       <c r="B243" t="n">
-        <v>6.58</v>
+        <v>6.51</v>
       </c>
       <c r="C243" t="n">
-        <v>6.89</v>
+        <v>7.05</v>
       </c>
       <c r="D243" t="n">
-        <v>5.74</v>
+        <v>6.47</v>
       </c>
       <c r="E243" t="n">
         <v>6.72</v>
@@ -5109,13 +5109,13 @@
         <v>45378</v>
       </c>
       <c r="B244" t="n">
-        <v>6.68</v>
+        <v>6.74</v>
       </c>
       <c r="C244" t="n">
-        <v>6.96</v>
+        <v>7.24</v>
       </c>
       <c r="D244" t="n">
-        <v>5.9</v>
+        <v>6.98</v>
       </c>
       <c r="E244" t="n">
         <v>6.74</v>
@@ -5126,13 +5126,13 @@
         <v>45379</v>
       </c>
       <c r="B245" t="n">
-        <v>6.77</v>
+        <v>6.88</v>
       </c>
       <c r="C245" t="n">
-        <v>7.25</v>
+        <v>7.24</v>
       </c>
       <c r="D245" t="n">
-        <v>6.05</v>
+        <v>7.31</v>
       </c>
       <c r="E245" t="n">
         <v>7.06</v>
@@ -5143,13 +5143,13 @@
         <v>45380</v>
       </c>
       <c r="B246" t="n">
-        <v>6.87</v>
+        <v>7.03</v>
       </c>
       <c r="C246" t="n">
         <v>7.43</v>
       </c>
       <c r="D246" t="n">
-        <v>6.23</v>
+        <v>7.42</v>
       </c>
       <c r="E246" t="n">
         <v>6.9</v>
@@ -5160,13 +5160,13 @@
         <v>45383</v>
       </c>
       <c r="B247" t="n">
-        <v>6.92</v>
+        <v>7.1</v>
       </c>
       <c r="C247" t="n">
-        <v>7.5</v>
+        <v>7.58</v>
       </c>
       <c r="D247" t="n">
-        <v>6.29</v>
+        <v>7.35</v>
       </c>
       <c r="E247" t="n">
         <v>6.75</v>
@@ -5177,13 +5177,13 @@
         <v>45384</v>
       </c>
       <c r="B248" t="n">
-        <v>6.91</v>
+        <v>7.03</v>
       </c>
       <c r="C248" t="n">
-        <v>7.24</v>
+        <v>7.41</v>
       </c>
       <c r="D248" t="n">
-        <v>6.25</v>
+        <v>7.17</v>
       </c>
       <c r="E248" t="n">
         <v>6.9</v>
@@ -5194,13 +5194,13 @@
         <v>45385</v>
       </c>
       <c r="B249" t="n">
-        <v>6.94</v>
+        <v>7.06</v>
       </c>
       <c r="C249" t="n">
-        <v>7.52</v>
+        <v>7.57</v>
       </c>
       <c r="D249" t="n">
-        <v>6.38</v>
+        <v>7.31</v>
       </c>
       <c r="E249" t="n">
         <v>6.87</v>
@@ -5211,13 +5211,13 @@
         <v>45386</v>
       </c>
       <c r="B250" t="n">
-        <v>6.96</v>
+        <v>7.1</v>
       </c>
       <c r="C250" t="n">
-        <v>7.53</v>
+        <v>7.51</v>
       </c>
       <c r="D250" t="n">
-        <v>6.41</v>
+        <v>7.33</v>
       </c>
       <c r="E250" t="n">
         <v>7.56</v>
@@ -5228,13 +5228,13 @@
         <v>45387</v>
       </c>
       <c r="B251" t="n">
-        <v>7.06</v>
+        <v>7.34</v>
       </c>
       <c r="C251" t="n">
-        <v>7.66</v>
+        <v>7.72</v>
       </c>
       <c r="D251" t="n">
-        <v>6.76</v>
+        <v>7.88</v>
       </c>
       <c r="E251" t="n">
         <v>8.32</v>
@@ -5245,13 +5245,13 @@
         <v>45390</v>
       </c>
       <c r="B252" t="n">
-        <v>7.24</v>
+        <v>7.74</v>
       </c>
       <c r="C252" t="n">
-        <v>7.75</v>
+        <v>7.95</v>
       </c>
       <c r="D252" t="n">
-        <v>7.12</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="E252" t="n">
         <v>8.609999999999999</v>
@@ -5262,13 +5262,13 @@
         <v>45391</v>
       </c>
       <c r="B253" t="n">
-        <v>7.46</v>
+        <v>8.18</v>
       </c>
       <c r="C253" t="n">
-        <v>8.18</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D253" t="n">
-        <v>7.45</v>
+        <v>9.18</v>
       </c>
       <c r="E253" t="n">
         <v>9.470000000000001</v>
@@ -5279,13 +5279,13 @@
         <v>45392</v>
       </c>
       <c r="B254" t="n">
-        <v>7.76</v>
+        <v>8.68</v>
       </c>
       <c r="C254" t="n">
-        <v>8.43</v>
+        <v>8.56</v>
       </c>
       <c r="D254" t="n">
-        <v>7.96</v>
+        <v>9.94</v>
       </c>
       <c r="E254" t="n">
         <v>9.25</v>
@@ -5296,13 +5296,13 @@
         <v>45393</v>
       </c>
       <c r="B255" t="n">
-        <v>7.95</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C255" t="n">
-        <v>8.56</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>8.1</v>
+        <v>9.91</v>
       </c>
       <c r="E255" t="n">
         <v>8.67</v>
@@ -5313,13 +5313,13 @@
         <v>45394</v>
       </c>
       <c r="B256" t="n">
-        <v>8.07</v>
+        <v>8.93</v>
       </c>
       <c r="C256" t="n">
-        <v>8.33</v>
+        <v>8.58</v>
       </c>
       <c r="D256" t="n">
-        <v>8.050000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E256" t="n">
         <v>8.24</v>
@@ -5330,13 +5330,13 @@
         <v>45397</v>
       </c>
       <c r="B257" t="n">
-        <v>8.130000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="C257" t="n">
-        <v>8.050000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="D257" t="n">
-        <v>7.93</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E257" t="n">
         <v>8.27</v>
@@ -5347,13 +5347,13 @@
         <v>45398</v>
       </c>
       <c r="B258" t="n">
-        <v>8.18</v>
+        <v>8.57</v>
       </c>
       <c r="C258" t="n">
-        <v>8.08</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D258" t="n">
-        <v>7.92</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E258" t="n">
         <v>7.7</v>
@@ -5364,13 +5364,13 @@
         <v>45399</v>
       </c>
       <c r="B259" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="C259" t="n">
-        <v>7.85</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>7.61</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E259" t="n">
         <v>8.01</v>
@@ -5381,13 +5381,13 @@
         <v>45400</v>
       </c>
       <c r="B260" t="n">
-        <v>8.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C260" t="n">
-        <v>7.97</v>
+        <v>7.92</v>
       </c>
       <c r="D260" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E260" t="n">
         <v>7.88</v>
@@ -5398,13 +5398,13 @@
         <v>45401</v>
       </c>
       <c r="B261" t="n">
-        <v>7.99</v>
+        <v>7.94</v>
       </c>
       <c r="C261" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="D261" t="n">
-        <v>7.47</v>
+        <v>7.9</v>
       </c>
       <c r="E261" t="n">
         <v>8.19</v>
@@ -5415,13 +5415,13 @@
         <v>45404</v>
       </c>
       <c r="B262" t="n">
-        <v>7.99</v>
+        <v>7.95</v>
       </c>
       <c r="C262" t="n">
-        <v>8.08</v>
+        <v>7.61</v>
       </c>
       <c r="D262" t="n">
-        <v>7.56</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E262" t="n">
         <v>7.89</v>
@@ -5432,13 +5432,13 @@
         <v>45405</v>
       </c>
       <c r="B263" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="C263" t="n">
-        <v>7.91</v>
+        <v>7.66</v>
       </c>
       <c r="D263" t="n">
-        <v>7.39</v>
+        <v>8.01</v>
       </c>
       <c r="E263" t="n">
         <v>7.6</v>
@@ -5449,13 +5449,13 @@
         <v>45406</v>
       </c>
       <c r="B264" t="n">
-        <v>7.8</v>
+        <v>7.71</v>
       </c>
       <c r="C264" t="n">
-        <v>7.89</v>
+        <v>7.52</v>
       </c>
       <c r="D264" t="n">
-        <v>7.16</v>
+        <v>7.61</v>
       </c>
       <c r="E264" t="n">
         <v>7.58</v>
@@ -5466,13 +5466,13 @@
         <v>45407</v>
       </c>
       <c r="B265" t="n">
-        <v>7.69</v>
+        <v>7.57</v>
       </c>
       <c r="C265" t="n">
-        <v>7.38</v>
+        <v>7.54</v>
       </c>
       <c r="D265" t="n">
-        <v>7.04</v>
+        <v>7.39</v>
       </c>
       <c r="E265" t="n">
         <v>7.42</v>
@@ -5483,13 +5483,13 @@
         <v>45408</v>
       </c>
       <c r="B266" t="n">
-        <v>7.56</v>
+        <v>7.44</v>
       </c>
       <c r="C266" t="n">
-        <v>7.17</v>
+        <v>7.58</v>
       </c>
       <c r="D266" t="n">
-        <v>6.88</v>
+        <v>7.12</v>
       </c>
       <c r="E266" t="n">
         <v>7.2</v>
@@ -5500,13 +5500,13 @@
         <v>45411</v>
       </c>
       <c r="B267" t="n">
-        <v>7.44</v>
+        <v>7.3</v>
       </c>
       <c r="C267" t="n">
-        <v>7.07</v>
+        <v>7.57</v>
       </c>
       <c r="D267" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="E267" t="n">
         <v>7.34</v>
@@ -5517,13 +5517,13 @@
         <v>45412</v>
       </c>
       <c r="B268" t="n">
-        <v>7.36</v>
+        <v>7.23</v>
       </c>
       <c r="C268" t="n">
-        <v>7.29</v>
+        <v>7.48</v>
       </c>
       <c r="D268" t="n">
-        <v>6.69</v>
+        <v>6.73</v>
       </c>
       <c r="E268" t="n">
         <v>7.28</v>
@@ -5534,13 +5534,13 @@
         <v>45413</v>
       </c>
       <c r="B269" t="n">
-        <v>7.3</v>
+        <v>7.21</v>
       </c>
       <c r="C269" t="n">
-        <v>7.1</v>
+        <v>7.23</v>
       </c>
       <c r="D269" t="n">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="E269" t="n">
         <v>7.31</v>
@@ -5551,13 +5551,13 @@
         <v>45414</v>
       </c>
       <c r="B270" t="n">
-        <v>7.25</v>
+        <v>7.21</v>
       </c>
       <c r="C270" t="n">
-        <v>7.16</v>
+        <v>7.04</v>
       </c>
       <c r="D270" t="n">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="E270" t="n">
         <v>6.9</v>
@@ -5568,13 +5568,13 @@
         <v>45415</v>
       </c>
       <c r="B271" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="C271" t="n">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
       <c r="D271" t="n">
-        <v>6.48</v>
+        <v>6.69</v>
       </c>
       <c r="E271" t="n">
         <v>7.3</v>
@@ -5585,13 +5585,13 @@
         <v>45418</v>
       </c>
       <c r="B272" t="n">
-        <v>7.18</v>
+        <v>7.23</v>
       </c>
       <c r="C272" t="n">
-        <v>7.6</v>
+        <v>6.98</v>
       </c>
       <c r="D272" t="n">
-        <v>6.6</v>
+        <v>7.08</v>
       </c>
       <c r="E272" t="n">
         <v>7.52</v>
@@ -5602,13 +5602,13 @@
         <v>45419</v>
       </c>
       <c r="B273" t="n">
-        <v>7.27</v>
+        <v>7.49</v>
       </c>
       <c r="C273" t="n">
-        <v>8.050000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="D273" t="n">
-        <v>6.83</v>
+        <v>7.66</v>
       </c>
       <c r="E273" t="n">
         <v>7.45</v>
@@ -5619,13 +5619,13 @@
         <v>45420</v>
       </c>
       <c r="B274" t="n">
-        <v>7.33</v>
+        <v>7.59</v>
       </c>
       <c r="C274" t="n">
-        <v>8.19</v>
+        <v>7.88</v>
       </c>
       <c r="D274" t="n">
-        <v>6.87</v>
+        <v>7.83</v>
       </c>
       <c r="E274" t="n">
         <v>7.17</v>
@@ -5636,13 +5636,13 @@
         <v>45421</v>
       </c>
       <c r="B275" t="n">
-        <v>7.33</v>
+        <v>7.47</v>
       </c>
       <c r="C275" t="n">
-        <v>7.51</v>
+        <v>7.8</v>
       </c>
       <c r="D275" t="n">
-        <v>6.73</v>
+        <v>7.43</v>
       </c>
       <c r="E275" t="n">
         <v>7.06</v>
@@ -5656,10 +5656,10 @@
         <v>7.29</v>
       </c>
       <c r="C276" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="D276" t="n">
         <v>7.17</v>
-      </c>
-      <c r="D276" t="n">
-        <v>6.58</v>
       </c>
       <c r="E276" t="n">
         <v>7.32</v>
@@ -5673,10 +5673,10 @@
         <v>7.33</v>
       </c>
       <c r="C277" t="n">
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="D277" t="n">
-        <v>6.68</v>
+        <v>7.41</v>
       </c>
       <c r="E277" t="n">
         <v>7.37</v>
@@ -5687,13 +5687,13 @@
         <v>45426</v>
       </c>
       <c r="B278" t="n">
-        <v>7.38</v>
+        <v>7.46</v>
       </c>
       <c r="C278" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="D278" t="n">
-        <v>6.76</v>
+        <v>7.6</v>
       </c>
       <c r="E278" t="n">
         <v>7.44</v>
@@ -5704,13 +5704,13 @@
         <v>45427</v>
       </c>
       <c r="B279" t="n">
-        <v>7.45</v>
+        <v>7.56</v>
       </c>
       <c r="C279" t="n">
-        <v>7.66</v>
+        <v>7.4</v>
       </c>
       <c r="D279" t="n">
-        <v>6.88</v>
+        <v>7.68</v>
       </c>
       <c r="E279" t="n">
         <v>7.59</v>
@@ -5721,13 +5721,13 @@
         <v>45428</v>
       </c>
       <c r="B280" t="n">
-        <v>7.56</v>
+        <v>7.68</v>
       </c>
       <c r="C280" t="n">
-        <v>7.81</v>
+        <v>7.59</v>
       </c>
       <c r="D280" t="n">
-        <v>7.03</v>
+        <v>7.83</v>
       </c>
       <c r="E280" t="n">
         <v>7.38</v>
@@ -5738,13 +5738,13 @@
         <v>45429</v>
       </c>
       <c r="B281" t="n">
-        <v>7.57</v>
+        <v>7.67</v>
       </c>
       <c r="C281" t="n">
-        <v>7.78</v>
+        <v>7.65</v>
       </c>
       <c r="D281" t="n">
-        <v>6.97</v>
+        <v>7.7</v>
       </c>
       <c r="E281" t="n">
         <v>7.87</v>
@@ -5755,13 +5755,13 @@
         <v>45432</v>
       </c>
       <c r="B282" t="n">
-        <v>7.71</v>
+        <v>7.79</v>
       </c>
       <c r="C282" t="n">
-        <v>7.86</v>
+        <v>7.89</v>
       </c>
       <c r="D282" t="n">
-        <v>7.19</v>
+        <v>7.83</v>
       </c>
       <c r="E282" t="n">
         <v>7.71</v>
@@ -5772,13 +5772,13 @@
         <v>45433</v>
       </c>
       <c r="B283" t="n">
-        <v>7.76</v>
+        <v>7.89</v>
       </c>
       <c r="C283" t="n">
-        <v>7.71</v>
+        <v>7.66</v>
       </c>
       <c r="D283" t="n">
-        <v>7.23</v>
+        <v>8.02</v>
       </c>
       <c r="E283" t="n">
         <v>7.5</v>
@@ -5789,13 +5789,13 @@
         <v>45434</v>
       </c>
       <c r="B284" t="n">
-        <v>7.74</v>
+        <v>7.8</v>
       </c>
       <c r="C284" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="D284" t="n">
-        <v>7.1</v>
+        <v>7.77</v>
       </c>
       <c r="E284" t="n">
         <v>7.49</v>
@@ -5806,13 +5806,13 @@
         <v>45435</v>
       </c>
       <c r="B285" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="C285" t="n">
-        <v>7.57</v>
+        <v>7.29</v>
       </c>
       <c r="D285" t="n">
-        <v>7.03</v>
+        <v>7.63</v>
       </c>
       <c r="E285" t="n">
         <v>7.27</v>
@@ -5823,13 +5823,13 @@
         <v>45436</v>
       </c>
       <c r="B286" t="n">
-        <v>7.52</v>
+        <v>7.44</v>
       </c>
       <c r="C286" t="n">
-        <v>7.43</v>
+        <v>6.96</v>
       </c>
       <c r="D286" t="n">
-        <v>6.81</v>
+        <v>7.34</v>
       </c>
       <c r="E286" t="n">
         <v>7.17</v>
@@ -5840,13 +5840,13 @@
         <v>45439</v>
       </c>
       <c r="B287" t="n">
-        <v>7.35</v>
+        <v>7.27</v>
       </c>
       <c r="C287" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D287" t="n">
         <v>7.17</v>
-      </c>
-      <c r="D287" t="n">
-        <v>6.66</v>
       </c>
       <c r="E287" t="n">
         <v>7.4</v>
@@ -5857,13 +5857,13 @@
         <v>45440</v>
       </c>
       <c r="B288" t="n">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
       <c r="C288" t="n">
-        <v>7.18</v>
+        <v>6.99</v>
       </c>
       <c r="D288" t="n">
-        <v>6.72</v>
+        <v>7.34</v>
       </c>
       <c r="E288" t="n">
         <v>7.15</v>
@@ -5874,13 +5874,13 @@
         <v>45441</v>
       </c>
       <c r="B289" t="n">
-        <v>7.18</v>
+        <v>7.26</v>
       </c>
       <c r="C289" t="n">
-        <v>7.07</v>
+        <v>6.84</v>
       </c>
       <c r="D289" t="n">
-        <v>6.58</v>
+        <v>7.17</v>
       </c>
       <c r="E289" t="n">
         <v>7.13</v>
@@ -5891,13 +5891,13 @@
         <v>45442</v>
       </c>
       <c r="B290" t="n">
-        <v>7.09</v>
+        <v>7.18</v>
       </c>
       <c r="C290" t="n">
-        <v>7.15</v>
+        <v>6.61</v>
       </c>
       <c r="D290" t="n">
-        <v>6.5</v>
+        <v>7.05</v>
       </c>
       <c r="E290" t="n">
         <v>7.17</v>
@@ -5908,13 +5908,13 @@
         <v>45443</v>
       </c>
       <c r="B291" t="n">
-        <v>7.01</v>
+        <v>7.13</v>
       </c>
       <c r="C291" t="n">
-        <v>6.98</v>
+        <v>6.67</v>
       </c>
       <c r="D291" t="n">
-        <v>6.47</v>
+        <v>7.05</v>
       </c>
       <c r="E291" t="n">
         <v>7.25</v>
@@ -5925,13 +5925,13 @@
         <v>45446</v>
       </c>
       <c r="B292" t="n">
-        <v>6.96</v>
+        <v>7.18</v>
       </c>
       <c r="C292" t="n">
-        <v>6.76</v>
+        <v>6.45</v>
       </c>
       <c r="D292" t="n">
-        <v>6.5</v>
+        <v>7.21</v>
       </c>
       <c r="E292" t="n">
         <v>7.34</v>
@@ -5942,13 +5942,13 @@
         <v>45447</v>
       </c>
       <c r="B293" t="n">
-        <v>6.97</v>
+        <v>7.3</v>
       </c>
       <c r="C293" t="n">
-        <v>6.8</v>
+        <v>7.03</v>
       </c>
       <c r="D293" t="n">
-        <v>6.6</v>
+        <v>7.49</v>
       </c>
       <c r="E293" t="n">
         <v>7.48</v>
@@ -5959,13 +5959,13 @@
         <v>45448</v>
       </c>
       <c r="B294" t="n">
-        <v>7.03</v>
+        <v>7.47</v>
       </c>
       <c r="C294" t="n">
-        <v>7.41</v>
+        <v>7.38</v>
       </c>
       <c r="D294" t="n">
-        <v>6.78</v>
+        <v>7.83</v>
       </c>
       <c r="E294" t="n">
         <v>7.18</v>
@@ -5976,13 +5976,13 @@
         <v>45449</v>
       </c>
       <c r="B295" t="n">
-        <v>7</v>
+        <v>7.39</v>
       </c>
       <c r="C295" t="n">
-        <v>6.95</v>
+        <v>7.19</v>
       </c>
       <c r="D295" t="n">
-        <v>6.6</v>
+        <v>7.37</v>
       </c>
       <c r="E295" t="n">
         <v>7.12</v>
@@ -5993,13 +5993,13 @@
         <v>45450</v>
       </c>
       <c r="B296" t="n">
-        <v>6.93</v>
+        <v>7.16</v>
       </c>
       <c r="C296" t="n">
-        <v>6.92</v>
+        <v>6.72</v>
       </c>
       <c r="D296" t="n">
-        <v>6.43</v>
+        <v>7.02</v>
       </c>
       <c r="E296" t="n">
         <v>7.18</v>
@@ -6010,13 +6010,13 @@
         <v>45453</v>
       </c>
       <c r="B297" t="n">
-        <v>6.89</v>
+        <v>7.11</v>
       </c>
       <c r="C297" t="n">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
       <c r="D297" t="n">
-        <v>6.4</v>
+        <v>7.08</v>
       </c>
       <c r="E297" t="n">
         <v>6.99</v>
@@ -6027,13 +6027,13 @@
         <v>45454</v>
       </c>
       <c r="B298" t="n">
-        <v>6.83</v>
+        <v>7.08</v>
       </c>
       <c r="C298" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="D298" t="n">
-        <v>6.29</v>
+        <v>6.97</v>
       </c>
       <c r="E298" t="n">
         <v>6.95</v>
@@ -6044,13 +6044,13 @@
         <v>45455</v>
       </c>
       <c r="B299" t="n">
-        <v>6.77</v>
+        <v>7.02</v>
       </c>
       <c r="C299" t="n">
-        <v>6.66</v>
+        <v>6.45</v>
       </c>
       <c r="D299" t="n">
-        <v>6.23</v>
+        <v>6.86</v>
       </c>
       <c r="E299" t="n">
         <v>6.91</v>
@@ -6061,13 +6061,13 @@
         <v>45456</v>
       </c>
       <c r="B300" t="n">
-        <v>6.71</v>
+        <v>6.98</v>
       </c>
       <c r="C300" t="n">
-        <v>6.95</v>
+        <v>6.49</v>
       </c>
       <c r="D300" t="n">
-        <v>6.16</v>
+        <v>6.79</v>
       </c>
       <c r="E300" t="n">
         <v>6.93</v>
@@ -6078,13 +6078,13 @@
         <v>45457</v>
       </c>
       <c r="B301" t="n">
-        <v>6.68</v>
+        <v>6.98</v>
       </c>
       <c r="C301" t="n">
-        <v>6.97</v>
+        <v>6.52</v>
       </c>
       <c r="D301" t="n">
-        <v>6.15</v>
+        <v>6.8</v>
       </c>
       <c r="E301" t="n">
         <v>6.68</v>
@@ -6095,13 +6095,13 @@
         <v>45460</v>
       </c>
       <c r="B302" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C302" t="n">
-        <v>6.91</v>
+        <v>6.58</v>
       </c>
       <c r="D302" t="n">
-        <v>6.02</v>
+        <v>6.66</v>
       </c>
       <c r="E302" t="n">
         <v>6.69</v>
@@ -6112,13 +6112,13 @@
         <v>45461</v>
       </c>
       <c r="B303" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="C303" t="n">
         <v>6.56</v>
       </c>
-      <c r="C303" t="n">
-        <v>6.65</v>
-      </c>
       <c r="D303" t="n">
-        <v>5.97</v>
+        <v>6.64</v>
       </c>
       <c r="E303" t="n">
         <v>6.62</v>
@@ -6129,13 +6129,13 @@
         <v>45462</v>
       </c>
       <c r="B304" t="n">
-        <v>6.52</v>
+        <v>6.81</v>
       </c>
       <c r="C304" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
       <c r="D304" t="n">
-        <v>5.9</v>
+        <v>6.55</v>
       </c>
       <c r="E304" t="n">
         <v>6.44</v>
@@ -6146,13 +6146,13 @@
         <v>45463</v>
       </c>
       <c r="B305" t="n">
-        <v>6.46</v>
+        <v>6.74</v>
       </c>
       <c r="C305" t="n">
-        <v>6.72</v>
+        <v>6.69</v>
       </c>
       <c r="D305" t="n">
-        <v>5.81</v>
+        <v>6.4</v>
       </c>
       <c r="E305" t="n">
         <v>6.55</v>
@@ -6163,13 +6163,13 @@
         <v>45464</v>
       </c>
       <c r="B306" t="n">
-        <v>6.43</v>
+        <v>6.72</v>
       </c>
       <c r="C306" t="n">
-        <v>6.52</v>
+        <v>6.58</v>
       </c>
       <c r="D306" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="E306" t="n">
         <v>6.52</v>
@@ -6180,13 +6180,13 @@
         <v>45467</v>
       </c>
       <c r="B307" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C307" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D307" t="n">
         <v>6.38</v>
-      </c>
-      <c r="C307" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="D307" t="n">
-        <v>5.75</v>
       </c>
       <c r="E307" t="n">
         <v>6.55</v>
@@ -6197,13 +6197,13 @@
         <v>45468</v>
       </c>
       <c r="B308" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D308" t="n">
         <v>6.35</v>
-      </c>
-      <c r="C308" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="D308" t="n">
-        <v>5.71</v>
       </c>
       <c r="E308" t="n">
         <v>6.46</v>
@@ -6214,13 +6214,13 @@
         <v>45469</v>
       </c>
       <c r="B309" t="n">
-        <v>6.28</v>
+        <v>6.61</v>
       </c>
       <c r="C309" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="D309" t="n">
-        <v>5.62</v>
+        <v>6.3</v>
       </c>
       <c r="E309" t="n">
         <v>6.54</v>
@@ -6231,13 +6231,13 @@
         <v>45470</v>
       </c>
       <c r="B310" t="n">
-        <v>6.28</v>
+        <v>6.64</v>
       </c>
       <c r="C310" t="n">
-        <v>6.52</v>
+        <v>6.31</v>
       </c>
       <c r="D310" t="n">
-        <v>5.66</v>
+        <v>6.41</v>
       </c>
       <c r="E310" t="n">
         <v>6.63</v>
@@ -6248,13 +6248,13 @@
         <v>45471</v>
       </c>
       <c r="B311" t="n">
-        <v>6.32</v>
+        <v>6.75</v>
       </c>
       <c r="C311" t="n">
-        <v>6.93</v>
+        <v>6.62</v>
       </c>
       <c r="D311" t="n">
-        <v>5.76</v>
+        <v>6.61</v>
       </c>
       <c r="E311" t="n">
         <v>6.87</v>
@@ -6265,13 +6265,13 @@
         <v>45474</v>
       </c>
       <c r="B312" t="n">
-        <v>6.46</v>
+        <v>6.95</v>
       </c>
       <c r="C312" t="n">
-        <v>6.96</v>
+        <v>6.77</v>
       </c>
       <c r="D312" t="n">
-        <v>5.97</v>
+        <v>6.9</v>
       </c>
       <c r="E312" t="n">
         <v>6.88</v>
@@ -6282,13 +6282,13 @@
         <v>45475</v>
       </c>
       <c r="B313" t="n">
-        <v>6.58</v>
+        <v>7.07</v>
       </c>
       <c r="C313" t="n">
-        <v>7.34</v>
+        <v>6.81</v>
       </c>
       <c r="D313" t="n">
-        <v>6.09</v>
+        <v>6.82</v>
       </c>
       <c r="E313" t="n">
         <v>6.67</v>
@@ -6299,13 +6299,13 @@
         <v>45476</v>
       </c>
       <c r="B314" t="n">
-        <v>6.63</v>
+        <v>6.98</v>
       </c>
       <c r="C314" t="n">
-        <v>6.74</v>
+        <v>6.8</v>
       </c>
       <c r="D314" t="n">
-        <v>6</v>
+        <v>6.67</v>
       </c>
       <c r="E314" t="n">
         <v>6.65</v>
@@ -6316,13 +6316,13 @@
         <v>45477</v>
       </c>
       <c r="B315" t="n">
-        <v>6.67</v>
+        <v>6.86</v>
       </c>
       <c r="C315" t="n">
-        <v>6.73</v>
+        <v>6.85</v>
       </c>
       <c r="D315" t="n">
-        <v>5.95</v>
+        <v>6.52</v>
       </c>
       <c r="E315" t="n">
         <v>6.38</v>
@@ -6333,13 +6333,13 @@
         <v>45478</v>
       </c>
       <c r="B316" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C316" t="n">
-        <v>6.55</v>
+        <v>6.74</v>
       </c>
       <c r="D316" t="n">
-        <v>5.77</v>
+        <v>6.39</v>
       </c>
       <c r="E316" t="n">
         <v>6.32</v>
@@ -6350,13 +6350,13 @@
         <v>45481</v>
       </c>
       <c r="B317" t="n">
-        <v>6.53</v>
+        <v>6.57</v>
       </c>
       <c r="C317" t="n">
-        <v>6.7</v>
+        <v>6.46</v>
       </c>
       <c r="D317" t="n">
-        <v>5.66</v>
+        <v>6.29</v>
       </c>
       <c r="E317" t="n">
         <v>6.49</v>
@@ -6367,13 +6367,13 @@
         <v>45482</v>
       </c>
       <c r="B318" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="C318" t="n">
-        <v>6.64</v>
+        <v>6.5</v>
       </c>
       <c r="D318" t="n">
-        <v>5.7</v>
+        <v>6.38</v>
       </c>
       <c r="E318" t="n">
         <v>6.28</v>
@@ -6384,13 +6384,13 @@
         <v>45483</v>
       </c>
       <c r="B319" t="n">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
       <c r="C319" t="n">
-        <v>6.6</v>
+        <v>6.49</v>
       </c>
       <c r="D319" t="n">
-        <v>5.6</v>
+        <v>6.24</v>
       </c>
       <c r="E319" t="n">
         <v>6.39</v>
@@ -6401,13 +6401,13 @@
         <v>45484</v>
       </c>
       <c r="B320" t="n">
-        <v>6.43</v>
+        <v>6.53</v>
       </c>
       <c r="C320" t="n">
-        <v>6.49</v>
+        <v>6.55</v>
       </c>
       <c r="D320" t="n">
-        <v>5.59</v>
+        <v>6.19</v>
       </c>
       <c r="E320" t="n">
         <v>6.48</v>
@@ -6418,13 +6418,13 @@
         <v>45485</v>
       </c>
       <c r="B321" t="n">
-        <v>6.43</v>
+        <v>6.58</v>
       </c>
       <c r="C321" t="n">
-        <v>6.49</v>
+        <v>6.37</v>
       </c>
       <c r="D321" t="n">
-        <v>5.63</v>
+        <v>6.28</v>
       </c>
       <c r="E321" t="n">
         <v>6.42</v>
@@ -6435,13 +6435,13 @@
         <v>45488</v>
       </c>
       <c r="B322" t="n">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="C322" t="n">
-        <v>6.43</v>
+        <v>6.39</v>
       </c>
       <c r="D322" t="n">
-        <v>5.63</v>
+        <v>6.3</v>
       </c>
       <c r="E322" t="n">
         <v>6.38</v>
@@ -6452,13 +6452,13 @@
         <v>45489</v>
       </c>
       <c r="B323" t="n">
-        <v>6.37</v>
+        <v>6.6</v>
       </c>
       <c r="C323" t="n">
-        <v>6.37</v>
+        <v>6.4</v>
       </c>
       <c r="D323" t="n">
-        <v>5.61</v>
+        <v>6.29</v>
       </c>
       <c r="E323" t="n">
         <v>6.26</v>
@@ -6469,13 +6469,13 @@
         <v>45490</v>
       </c>
       <c r="B324" t="n">
-        <v>6.28</v>
+        <v>6.5</v>
       </c>
       <c r="C324" t="n">
-        <v>6.17</v>
+        <v>6.26</v>
       </c>
       <c r="D324" t="n">
-        <v>5.51</v>
+        <v>6.16</v>
       </c>
       <c r="E324" t="n">
         <v>6.35</v>
@@ -6486,13 +6486,13 @@
         <v>45491</v>
       </c>
       <c r="B325" t="n">
-        <v>6.25</v>
+        <v>6.49</v>
       </c>
       <c r="C325" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D325" t="n">
-        <v>5.55</v>
+        <v>6.2</v>
       </c>
       <c r="E325" t="n">
         <v>6.17</v>
@@ -6503,13 +6503,13 @@
         <v>45492</v>
       </c>
       <c r="B326" t="n">
-        <v>6.16</v>
+        <v>6.42</v>
       </c>
       <c r="C326" t="n">
-        <v>5.79</v>
+        <v>6.17</v>
       </c>
       <c r="D326" t="n">
-        <v>5.43</v>
+        <v>6.07</v>
       </c>
       <c r="E326" t="n">
         <v>6.39</v>
@@ -6520,13 +6520,13 @@
         <v>45495</v>
       </c>
       <c r="B327" t="n">
-        <v>6.19</v>
+        <v>6.49</v>
       </c>
       <c r="C327" t="n">
         <v>6.43</v>
       </c>
       <c r="D327" t="n">
-        <v>5.55</v>
+        <v>6.19</v>
       </c>
       <c r="E327" t="n">
         <v>6.57</v>
@@ -6537,13 +6537,13 @@
         <v>45496</v>
       </c>
       <c r="B328" t="n">
-        <v>6.27</v>
+        <v>6.7</v>
       </c>
       <c r="C328" t="n">
-        <v>6.82</v>
+        <v>6.7</v>
       </c>
       <c r="D328" t="n">
-        <v>5.74</v>
+        <v>6.66</v>
       </c>
       <c r="E328" t="n">
         <v>6.86</v>
@@ -6554,13 +6554,13 @@
         <v>45497</v>
       </c>
       <c r="B329" t="n">
-        <v>6.38</v>
+        <v>6.91</v>
       </c>
       <c r="C329" t="n">
-        <v>7.01</v>
+        <v>6.62</v>
       </c>
       <c r="D329" t="n">
-        <v>5.94</v>
+        <v>6.97</v>
       </c>
       <c r="E329" t="n">
         <v>6.88</v>
@@ -6571,13 +6571,13 @@
         <v>45498</v>
       </c>
       <c r="B330" t="n">
-        <v>6.5</v>
+        <v>7.05</v>
       </c>
       <c r="C330" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D330" t="n">
         <v>6.98</v>
-      </c>
-      <c r="D330" t="n">
-        <v>6.09</v>
       </c>
       <c r="E330" t="n">
         <v>6.77</v>
@@ -6588,13 +6588,13 @@
         <v>45499</v>
       </c>
       <c r="B331" t="n">
-        <v>6.6</v>
+        <v>7.09</v>
       </c>
       <c r="C331" t="n">
-        <v>6.82</v>
+        <v>6.58</v>
       </c>
       <c r="D331" t="n">
-        <v>6.15</v>
+        <v>6.95</v>
       </c>
       <c r="E331" t="n">
         <v>6.92</v>
@@ -6605,13 +6605,13 @@
         <v>45502</v>
       </c>
       <c r="B332" t="n">
-        <v>6.75</v>
+        <v>7.15</v>
       </c>
       <c r="C332" t="n">
-        <v>7.04</v>
+        <v>6.66</v>
       </c>
       <c r="D332" t="n">
-        <v>6.29</v>
+        <v>6.96</v>
       </c>
       <c r="E332" t="n">
         <v>6.86</v>
@@ -6622,13 +6622,13 @@
         <v>45503</v>
       </c>
       <c r="B333" t="n">
-        <v>6.87</v>
+        <v>7.21</v>
       </c>
       <c r="C333" t="n">
-        <v>7.08</v>
+        <v>6.76</v>
       </c>
       <c r="D333" t="n">
-        <v>6.35</v>
+        <v>6.91</v>
       </c>
       <c r="E333" t="n">
         <v>6.88</v>
@@ -6639,13 +6639,13 @@
         <v>45504</v>
       </c>
       <c r="B334" t="n">
-        <v>6.97</v>
+        <v>7.23</v>
       </c>
       <c r="C334" t="n">
-        <v>7.18</v>
+        <v>6.82</v>
       </c>
       <c r="D334" t="n">
-        <v>6.42</v>
+        <v>6.9</v>
       </c>
       <c r="E334" t="n">
         <v>6.67</v>
@@ -6656,13 +6656,13 @@
         <v>45505</v>
       </c>
       <c r="B335" t="n">
-        <v>6.98</v>
+        <v>7.09</v>
       </c>
       <c r="C335" t="n">
-        <v>7.01</v>
+        <v>6.72</v>
       </c>
       <c r="D335" t="n">
-        <v>6.27</v>
+        <v>6.7</v>
       </c>
       <c r="E335" t="n">
         <v>6.77</v>
@@ -6673,13 +6673,13 @@
         <v>45506</v>
       </c>
       <c r="B336" t="n">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="C336" t="n">
-        <v>6.93</v>
+        <v>6.77</v>
       </c>
       <c r="D336" t="n">
-        <v>6.28</v>
+        <v>6.74</v>
       </c>
       <c r="E336" t="n">
         <v>7.1</v>
@@ -6690,13 +6690,13 @@
         <v>45509</v>
       </c>
       <c r="B337" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C337" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D337" t="n">
         <v>7.06</v>
-      </c>
-      <c r="C337" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D337" t="n">
-        <v>6.49</v>
       </c>
       <c r="E337" t="n">
         <v>6.6</v>
@@ -6707,13 +6707,13 @@
         <v>45510</v>
       </c>
       <c r="B338" t="n">
-        <v>6.97</v>
+        <v>7.01</v>
       </c>
       <c r="C338" t="n">
-        <v>6.88</v>
+        <v>6.49</v>
       </c>
       <c r="D338" t="n">
-        <v>6.18</v>
+        <v>6.66</v>
       </c>
       <c r="E338" t="n">
         <v>6.71</v>
@@ -6724,13 +6724,13 @@
         <v>45511</v>
       </c>
       <c r="B339" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
       <c r="C339" t="n">
-        <v>6.77</v>
+        <v>6.45</v>
       </c>
       <c r="D339" t="n">
-        <v>6.12</v>
+        <v>6.55</v>
       </c>
       <c r="E339" t="n">
         <v>7.14</v>
@@ -6741,13 +6741,13 @@
         <v>45512</v>
       </c>
       <c r="B340" t="n">
-        <v>6.98</v>
+        <v>7.06</v>
       </c>
       <c r="C340" t="n">
-        <v>7.14</v>
+        <v>7.03</v>
       </c>
       <c r="D340" t="n">
-        <v>6.42</v>
+        <v>7.05</v>
       </c>
       <c r="E340" t="n">
         <v>7.51</v>
@@ -6758,13 +6758,13 @@
         <v>45513</v>
       </c>
       <c r="B341" t="n">
-        <v>7.06</v>
+        <v>7.35</v>
       </c>
       <c r="C341" t="n">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="D341" t="n">
-        <v>6.66</v>
+        <v>7.41</v>
       </c>
       <c r="E341" t="n">
         <v>7.39</v>
@@ -6775,13 +6775,13 @@
         <v>45516</v>
       </c>
       <c r="B342" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C342" t="n">
         <v>7.11</v>
       </c>
-      <c r="C342" t="n">
-        <v>7.24</v>
-      </c>
       <c r="D342" t="n">
-        <v>6.72</v>
+        <v>7.36</v>
       </c>
       <c r="E342" t="n">
         <v>7.59</v>
@@ -6792,13 +6792,13 @@
         <v>45517</v>
       </c>
       <c r="B343" t="n">
-        <v>7.21</v>
+        <v>7.55</v>
       </c>
       <c r="C343" t="n">
-        <v>6.91</v>
+        <v>7.16</v>
       </c>
       <c r="D343" t="n">
-        <v>6.91</v>
+        <v>7.57</v>
       </c>
       <c r="E343" t="n">
         <v>7.85</v>
@@ -6809,13 +6809,13 @@
         <v>45518</v>
       </c>
       <c r="B344" t="n">
-        <v>7.34</v>
+        <v>7.73</v>
       </c>
       <c r="C344" t="n">
-        <v>7.22</v>
+        <v>7.41</v>
       </c>
       <c r="D344" t="n">
-        <v>7.1</v>
+        <v>7.83</v>
       </c>
       <c r="E344" t="n">
         <v>7.42</v>
@@ -6826,13 +6826,13 @@
         <v>45519</v>
       </c>
       <c r="B345" t="n">
-        <v>7.38</v>
+        <v>7.72</v>
       </c>
       <c r="C345" t="n">
-        <v>7</v>
+        <v>7.59</v>
       </c>
       <c r="D345" t="n">
-        <v>7.01</v>
+        <v>7.6</v>
       </c>
       <c r="E345" t="n">
         <v>7.05</v>
@@ -6843,13 +6843,13 @@
         <v>45520</v>
       </c>
       <c r="B346" t="n">
-        <v>7.31</v>
+        <v>7.51</v>
       </c>
       <c r="C346" t="n">
-        <v>7</v>
+        <v>7.42</v>
       </c>
       <c r="D346" t="n">
-        <v>6.81</v>
+        <v>7.26</v>
       </c>
       <c r="E346" t="n">
         <v>6.95</v>
@@ -6860,13 +6860,13 @@
         <v>45523</v>
       </c>
       <c r="B347" t="n">
-        <v>7.22</v>
+        <v>7.31</v>
       </c>
       <c r="C347" t="n">
-        <v>7</v>
+        <v>6.96</v>
       </c>
       <c r="D347" t="n">
-        <v>6.66</v>
+        <v>7.08</v>
       </c>
       <c r="E347" t="n">
         <v>7.07</v>
@@ -6877,13 +6877,13 @@
         <v>45524</v>
       </c>
       <c r="B348" t="n">
-        <v>7.15</v>
+        <v>7.2</v>
       </c>
       <c r="C348" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D348" t="n">
-        <v>6.59</v>
+        <v>6.99</v>
       </c>
       <c r="E348" t="n">
         <v>6.81</v>
@@ -6894,13 +6894,13 @@
         <v>45525</v>
       </c>
       <c r="B349" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="C349" t="n">
-        <v>7.17</v>
+        <v>6.69</v>
       </c>
       <c r="D349" t="n">
-        <v>6.4</v>
+        <v>6.76</v>
       </c>
       <c r="E349" t="n">
         <v>6.78</v>
@@ -6911,13 +6911,13 @@
         <v>45526</v>
       </c>
       <c r="B350" t="n">
-        <v>6.97</v>
+        <v>6.96</v>
       </c>
       <c r="C350" t="n">
-        <v>7.23</v>
+        <v>6.57</v>
       </c>
       <c r="D350" t="n">
-        <v>6.3</v>
+        <v>6.67</v>
       </c>
       <c r="E350" t="n">
         <v>6.64</v>
@@ -6928,13 +6928,13 @@
         <v>45527</v>
       </c>
       <c r="B351" t="n">
-        <v>6.88</v>
+        <v>6.87</v>
       </c>
       <c r="C351" t="n">
-        <v>7.15</v>
+        <v>6.4</v>
       </c>
       <c r="D351" t="n">
-        <v>6.17</v>
+        <v>6.51</v>
       </c>
       <c r="E351" t="n">
         <v>6.68</v>
@@ -6945,13 +6945,13 @@
         <v>45530</v>
       </c>
       <c r="B352" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="C352" t="n">
-        <v>6.69</v>
+        <v>6.65</v>
       </c>
       <c r="D352" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="E352" t="n">
         <v>6.69</v>
@@ -6962,13 +6962,13 @@
         <v>45531</v>
       </c>
       <c r="B353" t="n">
-        <v>6.74</v>
+        <v>6.8</v>
       </c>
       <c r="C353" t="n">
-        <v>6.73</v>
+        <v>6.61</v>
       </c>
       <c r="D353" t="n">
-        <v>6.05</v>
+        <v>6.44</v>
       </c>
       <c r="E353" t="n">
         <v>6.8</v>
@@ -6979,13 +6979,13 @@
         <v>45532</v>
       </c>
       <c r="B354" t="n">
-        <v>6.72</v>
+        <v>6.83</v>
       </c>
       <c r="C354" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="D354" t="n">
-        <v>6.07</v>
+        <v>6.54</v>
       </c>
       <c r="E354" t="n">
         <v>6.67</v>
@@ -6996,13 +6996,13 @@
         <v>45533</v>
       </c>
       <c r="B355" t="n">
-        <v>6.65</v>
+        <v>6.77</v>
       </c>
       <c r="C355" t="n">
-        <v>6.14</v>
+        <v>6.79</v>
       </c>
       <c r="D355" t="n">
-        <v>5.96</v>
+        <v>6.4</v>
       </c>
       <c r="E355" t="n">
         <v>6.63</v>
@@ -7013,13 +7013,13 @@
         <v>45534</v>
       </c>
       <c r="B356" t="n">
-        <v>6.57</v>
+        <v>6.68</v>
       </c>
       <c r="C356" t="n">
-        <v>6.35</v>
+        <v>6.85</v>
       </c>
       <c r="D356" t="n">
-        <v>5.88</v>
+        <v>6.27</v>
       </c>
       <c r="E356" t="n">
         <v>6.48</v>
@@ -7030,13 +7030,13 @@
         <v>45537</v>
       </c>
       <c r="B357" t="n">
-        <v>6.49</v>
+        <v>6.6</v>
       </c>
       <c r="C357" t="n">
-        <v>6.57</v>
+        <v>6.76</v>
       </c>
       <c r="D357" t="n">
-        <v>5.77</v>
+        <v>6.14</v>
       </c>
       <c r="E357" t="n">
         <v>6.36</v>
@@ -7047,13 +7047,13 @@
         <v>45538</v>
       </c>
       <c r="B358" t="n">
-        <v>6.38</v>
+        <v>6.52</v>
       </c>
       <c r="C358" t="n">
-        <v>6.52</v>
+        <v>6.72</v>
       </c>
       <c r="D358" t="n">
-        <v>5.67</v>
+        <v>6.05</v>
       </c>
       <c r="E358" t="n">
         <v>6.28</v>
@@ -7064,13 +7064,13 @@
         <v>45539</v>
       </c>
       <c r="B359" t="n">
-        <v>6.28</v>
+        <v>6.47</v>
       </c>
       <c r="C359" t="n">
-        <v>6.47</v>
+        <v>6.4</v>
       </c>
       <c r="D359" t="n">
-        <v>5.6</v>
+        <v>6.01</v>
       </c>
       <c r="E359" t="n">
         <v>6.28</v>
@@ -7081,13 +7081,13 @@
         <v>45540</v>
       </c>
       <c r="B360" t="n">
-        <v>6.19</v>
+        <v>6.44</v>
       </c>
       <c r="C360" t="n">
-        <v>6.61</v>
+        <v>6.03</v>
       </c>
       <c r="D360" t="n">
-        <v>5.52</v>
+        <v>6.03</v>
       </c>
       <c r="E360" t="n">
         <v>6.22</v>
@@ -7098,13 +7098,13 @@
         <v>45541</v>
       </c>
       <c r="B361" t="n">
-        <v>6.11</v>
+        <v>6.4</v>
       </c>
       <c r="C361" t="n">
-        <v>6.72</v>
+        <v>6.15</v>
       </c>
       <c r="D361" t="n">
-        <v>5.45</v>
+        <v>6.06</v>
       </c>
       <c r="E361" t="n">
         <v>6.03</v>
@@ -7115,13 +7115,13 @@
         <v>45544</v>
       </c>
       <c r="B362" t="n">
-        <v>6.05</v>
+        <v>6.32</v>
       </c>
       <c r="C362" t="n">
-        <v>6.55</v>
+        <v>5.99</v>
       </c>
       <c r="D362" t="n">
-        <v>5.34</v>
+        <v>5.89</v>
       </c>
       <c r="E362" t="n">
         <v>5.92</v>
@@ -7132,13 +7132,13 @@
         <v>45545</v>
       </c>
       <c r="B363" t="n">
-        <v>6</v>
+        <v>6.26</v>
       </c>
       <c r="C363" t="n">
-        <v>6.24</v>
+        <v>5.95</v>
       </c>
       <c r="D363" t="n">
-        <v>5.25</v>
+        <v>5.83</v>
       </c>
       <c r="E363" t="n">
         <v>6.07</v>
@@ -7149,13 +7149,13 @@
         <v>45546</v>
       </c>
       <c r="B364" t="n">
-        <v>5.99</v>
+        <v>6.28</v>
       </c>
       <c r="C364" t="n">
-        <v>6.21</v>
+        <v>5.9</v>
       </c>
       <c r="D364" t="n">
-        <v>5.24</v>
+        <v>5.91</v>
       </c>
       <c r="E364" t="n">
         <v>6.21</v>
@@ -7166,13 +7166,13 @@
         <v>45547</v>
       </c>
       <c r="B365" t="n">
-        <v>6.03</v>
+        <v>6.37</v>
       </c>
       <c r="C365" t="n">
-        <v>6.46</v>
+        <v>6.29</v>
       </c>
       <c r="D365" t="n">
-        <v>5.3</v>
+        <v>6.11</v>
       </c>
       <c r="E365" t="n">
         <v>5.88</v>
@@ -7183,13 +7183,13 @@
         <v>45548</v>
       </c>
       <c r="B366" t="n">
-        <v>5.98</v>
+        <v>6.27</v>
       </c>
       <c r="C366" t="n">
-        <v>6.09</v>
+        <v>5.86</v>
       </c>
       <c r="D366" t="n">
-        <v>5.15</v>
+        <v>5.89</v>
       </c>
       <c r="E366" t="n">
         <v>5.9</v>
@@ -7200,13 +7200,13 @@
         <v>45551</v>
       </c>
       <c r="B367" t="n">
-        <v>5.96</v>
+        <v>6.16</v>
       </c>
       <c r="C367" t="n">
-        <v>5.87</v>
+        <v>5.74</v>
       </c>
       <c r="D367" t="n">
-        <v>5.09</v>
+        <v>5.77</v>
       </c>
       <c r="E367" t="n">
         <v>5.9</v>
@@ -7217,13 +7217,13 @@
         <v>45552</v>
       </c>
       <c r="B368" t="n">
-        <v>5.93</v>
+        <v>6.1</v>
       </c>
       <c r="C368" t="n">
-        <v>5.86</v>
+        <v>5.96</v>
       </c>
       <c r="D368" t="n">
-        <v>5.03</v>
+        <v>5.72</v>
       </c>
       <c r="E368" t="n">
         <v>5.97</v>
@@ -7234,13 +7234,13 @@
         <v>45553</v>
       </c>
       <c r="B369" t="n">
-        <v>5.92</v>
+        <v>6.12</v>
       </c>
       <c r="C369" t="n">
-        <v>5.84</v>
+        <v>5.75</v>
       </c>
       <c r="D369" t="n">
-        <v>5.04</v>
+        <v>5.8</v>
       </c>
       <c r="E369" t="n">
         <v>5.98</v>
@@ -7251,13 +7251,13 @@
         <v>45554</v>
       </c>
       <c r="B370" t="n">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="C370" t="n">
-        <v>6.01</v>
+        <v>5.67</v>
       </c>
       <c r="D370" t="n">
-        <v>5.03</v>
+        <v>5.82</v>
       </c>
       <c r="E370" t="n">
         <v>5.88</v>
@@ -7268,13 +7268,13 @@
         <v>45555</v>
       </c>
       <c r="B371" t="n">
-        <v>5.88</v>
+        <v>6.1</v>
       </c>
       <c r="C371" t="n">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="D371" t="n">
-        <v>4.96</v>
+        <v>5.73</v>
       </c>
       <c r="E371" t="n">
         <v>5.82</v>
@@ -7285,13 +7285,13 @@
         <v>45558</v>
       </c>
       <c r="B372" t="n">
-        <v>5.85</v>
+        <v>6.03</v>
       </c>
       <c r="C372" t="n">
-        <v>5.6</v>
+        <v>5.74</v>
       </c>
       <c r="D372" t="n">
-        <v>4.9</v>
+        <v>5.67</v>
       </c>
       <c r="E372" t="n">
         <v>5.77</v>
@@ -7302,13 +7302,13 @@
         <v>45559</v>
       </c>
       <c r="B373" t="n">
-        <v>5.83</v>
+        <v>5.99</v>
       </c>
       <c r="C373" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="D373" t="n">
-        <v>4.86</v>
+        <v>5.63</v>
       </c>
       <c r="E373" t="n">
         <v>5.75</v>
@@ -7319,13 +7319,13 @@
         <v>45560</v>
       </c>
       <c r="B374" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="C374" t="n">
-        <v>5.73</v>
+        <v>5.57</v>
       </c>
       <c r="D374" t="n">
-        <v>4.82</v>
+        <v>5.59</v>
       </c>
       <c r="E374" t="n">
         <v>5.7</v>
@@ -7336,13 +7336,13 @@
         <v>45561</v>
       </c>
       <c r="B375" t="n">
-        <v>5.78</v>
+        <v>5.96</v>
       </c>
       <c r="C375" t="n">
         <v>5.55</v>
       </c>
       <c r="D375" t="n">
-        <v>4.78</v>
+        <v>5.55</v>
       </c>
       <c r="E375" t="n">
         <v>5.69</v>
@@ -7353,13 +7353,13 @@
         <v>45562</v>
       </c>
       <c r="B376" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="C376" t="n">
-        <v>5.56</v>
+        <v>5.7</v>
       </c>
       <c r="D376" t="n">
-        <v>4.76</v>
+        <v>5.52</v>
       </c>
       <c r="E376" t="n">
         <v>5.83</v>
@@ -7370,13 +7370,13 @@
         <v>45565</v>
       </c>
       <c r="B377" t="n">
-        <v>5.79</v>
+        <v>6.04</v>
       </c>
       <c r="C377" t="n">
-        <v>5.61</v>
+        <v>5.84</v>
       </c>
       <c r="D377" t="n">
-        <v>4.84</v>
+        <v>5.66</v>
       </c>
       <c r="E377" t="n">
         <v>5.79</v>
@@ -7387,13 +7387,13 @@
         <v>45566</v>
       </c>
       <c r="B378" t="n">
-        <v>5.79</v>
+        <v>6.07</v>
       </c>
       <c r="C378" t="n">
-        <v>5.54</v>
+        <v>5.82</v>
       </c>
       <c r="D378" t="n">
-        <v>4.85</v>
+        <v>5.67</v>
       </c>
       <c r="E378" t="n">
         <v>5.93</v>
@@ -7404,13 +7404,13 @@
         <v>45567</v>
       </c>
       <c r="B379" t="n">
-        <v>5.85</v>
+        <v>6.16</v>
       </c>
       <c r="C379" t="n">
-        <v>5.79</v>
+        <v>5.71</v>
       </c>
       <c r="D379" t="n">
-        <v>4.99</v>
+        <v>5.93</v>
       </c>
       <c r="E379" t="n">
         <v>6.07</v>
@@ -7421,13 +7421,13 @@
         <v>45568</v>
       </c>
       <c r="B380" t="n">
-        <v>5.93</v>
+        <v>6.35</v>
       </c>
       <c r="C380" t="n">
-        <v>6.03</v>
+        <v>5.86</v>
       </c>
       <c r="D380" t="n">
-        <v>5.17</v>
+        <v>6.09</v>
       </c>
       <c r="E380" t="n">
         <v>6.06</v>
@@ -7438,13 +7438,13 @@
         <v>45569</v>
       </c>
       <c r="B381" t="n">
-        <v>6.01</v>
+        <v>6.41</v>
       </c>
       <c r="C381" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="D381" t="n">
-        <v>5.26</v>
+        <v>6.06</v>
       </c>
       <c r="E381" t="n">
         <v>6.22</v>
@@ -7455,13 +7455,13 @@
         <v>45572</v>
       </c>
       <c r="B382" t="n">
-        <v>6.1</v>
+        <v>6.48</v>
       </c>
       <c r="C382" t="n">
-        <v>5.74</v>
+        <v>5.8</v>
       </c>
       <c r="D382" t="n">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="E382" t="n">
         <v>6.49</v>
@@ -7472,13 +7472,13 @@
         <v>45573</v>
       </c>
       <c r="B383" t="n">
-        <v>6.23</v>
+        <v>6.61</v>
       </c>
       <c r="C383" t="n">
-        <v>5.69</v>
+        <v>5.79</v>
       </c>
       <c r="D383" t="n">
-        <v>5.58</v>
+        <v>6.41</v>
       </c>
       <c r="E383" t="n">
         <v>7.05</v>
@@ -7489,13 +7489,13 @@
         <v>45574</v>
       </c>
       <c r="B384" t="n">
-        <v>6.47</v>
+        <v>6.88</v>
       </c>
       <c r="C384" t="n">
-        <v>6.13</v>
+        <v>6.21</v>
       </c>
       <c r="D384" t="n">
-        <v>5.84</v>
+        <v>6.71</v>
       </c>
       <c r="E384" t="n">
         <v>7.22</v>
@@ -7506,13 +7506,13 @@
         <v>45575</v>
       </c>
       <c r="B385" t="n">
-        <v>6.66</v>
+        <v>7.14</v>
       </c>
       <c r="C385" t="n">
-        <v>6.21</v>
+        <v>6.79</v>
       </c>
       <c r="D385" t="n">
-        <v>6.05</v>
+        <v>7.01</v>
       </c>
       <c r="E385" t="n">
         <v>6.51</v>
@@ -7523,13 +7523,13 @@
         <v>45576</v>
       </c>
       <c r="B386" t="n">
-        <v>6.69</v>
+        <v>7.02</v>
       </c>
       <c r="C386" t="n">
-        <v>5.94</v>
+        <v>6.89</v>
       </c>
       <c r="D386" t="n">
-        <v>5.86</v>
+        <v>6.33</v>
       </c>
       <c r="E386" t="n">
         <v>6.59</v>
@@ -7540,13 +7540,13 @@
         <v>45579</v>
       </c>
       <c r="B387" t="n">
-        <v>6.74</v>
+        <v>6.91</v>
       </c>
       <c r="C387" t="n">
-        <v>6.16</v>
+        <v>6.7</v>
       </c>
       <c r="D387" t="n">
-        <v>5.88</v>
+        <v>6.24</v>
       </c>
       <c r="E387" t="n">
         <v>6.34</v>
@@ -7557,13 +7557,13 @@
         <v>45580</v>
       </c>
       <c r="B388" t="n">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="C388" t="n">
-        <v>6.13</v>
+        <v>6.32</v>
       </c>
       <c r="D388" t="n">
-        <v>5.77</v>
+        <v>6.16</v>
       </c>
       <c r="E388" t="n">
         <v>6.45</v>
@@ -7574,13 +7574,13 @@
         <v>45581</v>
       </c>
       <c r="B389" t="n">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
       <c r="C389" t="n">
-        <v>6.41</v>
+        <v>6.49</v>
       </c>
       <c r="D389" t="n">
-        <v>5.77</v>
+        <v>6.15</v>
       </c>
       <c r="E389" t="n">
         <v>6.26</v>
@@ -7591,13 +7591,13 @@
         <v>45582</v>
       </c>
       <c r="B390" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="C390" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D390" t="n">
-        <v>5.65</v>
+        <v>6.07</v>
       </c>
       <c r="E390" t="n">
         <v>6.34</v>
@@ -7608,13 +7608,13 @@
         <v>45583</v>
       </c>
       <c r="B391" t="n">
-        <v>6.56</v>
+        <v>6.49</v>
       </c>
       <c r="C391" t="n">
-        <v>6.44</v>
+        <v>6.15</v>
       </c>
       <c r="D391" t="n">
-        <v>5.62</v>
+        <v>6.04</v>
       </c>
       <c r="E391" t="n">
         <v>6.25</v>
@@ -7625,13 +7625,13 @@
         <v>45586</v>
       </c>
       <c r="B392" t="n">
-        <v>6.48</v>
+        <v>6.43</v>
       </c>
       <c r="C392" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="D392" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="E392" t="n">
         <v>6.44</v>
@@ -7642,13 +7642,13 @@
         <v>45587</v>
       </c>
       <c r="B393" t="n">
-        <v>6.44</v>
+        <v>6.45</v>
       </c>
       <c r="C393" t="n">
-        <v>5.99</v>
+        <v>6.38</v>
       </c>
       <c r="D393" t="n">
-        <v>5.6</v>
+        <v>6.12</v>
       </c>
       <c r="E393" t="n">
         <v>6.52</v>
@@ -7659,13 +7659,13 @@
         <v>45588</v>
       </c>
       <c r="B394" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C394" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D394" t="n">
         <v>6.47</v>
-      </c>
-      <c r="C394" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D394" t="n">
-        <v>5.75</v>
       </c>
       <c r="E394" t="n">
         <v>6.64</v>
@@ -7676,13 +7676,13 @@
         <v>45589</v>
       </c>
       <c r="B395" t="n">
-        <v>6.54</v>
+        <v>6.79</v>
       </c>
       <c r="C395" t="n">
-        <v>6.16</v>
+        <v>7.05</v>
       </c>
       <c r="D395" t="n">
-        <v>5.94</v>
+        <v>6.85</v>
       </c>
       <c r="E395" t="n">
         <v>6.69</v>
@@ -7693,13 +7693,13 @@
         <v>45590</v>
       </c>
       <c r="B396" t="n">
-        <v>6.6</v>
+        <v>6.87</v>
       </c>
       <c r="C396" t="n">
-        <v>6.61</v>
+        <v>6.95</v>
       </c>
       <c r="D396" t="n">
-        <v>6.07</v>
+        <v>6.87</v>
       </c>
       <c r="E396" t="n">
         <v>6.55</v>
@@ -7710,13 +7710,13 @@
         <v>45593</v>
       </c>
       <c r="B397" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C397" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="D397" t="n">
         <v>6.61</v>
-      </c>
-      <c r="C397" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D397" t="n">
-        <v>6.02</v>
       </c>
       <c r="E397" t="n">
         <v>6.63</v>
@@ -7727,13 +7727,13 @@
         <v>45594</v>
       </c>
       <c r="B398" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
       <c r="C398" t="n">
-        <v>6.67</v>
+        <v>6.85</v>
       </c>
       <c r="D398" t="n">
-        <v>6.11</v>
+        <v>6.6</v>
       </c>
       <c r="E398" t="n">
         <v>6.77</v>
@@ -7744,13 +7744,13 @@
         <v>45595</v>
       </c>
       <c r="B399" t="n">
-        <v>6.73</v>
+        <v>6.88</v>
       </c>
       <c r="C399" t="n">
-        <v>6.88</v>
+        <v>7</v>
       </c>
       <c r="D399" t="n">
-        <v>6.2</v>
+        <v>6.75</v>
       </c>
       <c r="E399" t="n">
         <v>6.63</v>
@@ -7761,13 +7761,13 @@
         <v>45596</v>
       </c>
       <c r="B400" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C400" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D400" t="n">
         <v>6.79</v>
-      </c>
-      <c r="C400" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="D400" t="n">
-        <v>6.22</v>
       </c>
       <c r="E400" t="n">
         <v>6.71</v>
@@ -7778,13 +7778,13 @@
         <v>45597</v>
       </c>
       <c r="B401" t="n">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="C401" t="n">
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="D401" t="n">
-        <v>6.26</v>
+        <v>6.77</v>
       </c>
       <c r="E401" t="n">
         <v>6.58</v>
@@ -7795,13 +7795,13 @@
         <v>45600</v>
       </c>
       <c r="B402" t="n">
-        <v>6.81</v>
+        <v>6.87</v>
       </c>
       <c r="C402" t="n">
-        <v>6.66</v>
+        <v>6.84</v>
       </c>
       <c r="D402" t="n">
-        <v>6.13</v>
+        <v>6.68</v>
       </c>
       <c r="E402" t="n">
         <v>6.29</v>
@@ -7812,13 +7812,13 @@
         <v>45601</v>
       </c>
       <c r="B403" t="n">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="C403" t="n">
-        <v>7.02</v>
+        <v>6.5</v>
       </c>
       <c r="D403" t="n">
-        <v>5.88</v>
+        <v>6.35</v>
       </c>
       <c r="E403" t="n">
         <v>6.54</v>
@@ -7829,13 +7829,13 @@
         <v>45602</v>
       </c>
       <c r="B404" t="n">
-        <v>6.71</v>
+        <v>6.66</v>
       </c>
       <c r="C404" t="n">
-        <v>6.99</v>
+        <v>6.93</v>
       </c>
       <c r="D404" t="n">
-        <v>5.98</v>
+        <v>6.59</v>
       </c>
       <c r="E404" t="n">
         <v>6.7</v>
@@ -7846,13 +7846,13 @@
         <v>45603</v>
       </c>
       <c r="B405" t="n">
-        <v>6.78</v>
+        <v>6.82</v>
       </c>
       <c r="C405" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="D405" t="n">
-        <v>6.11</v>
+        <v>6.82</v>
       </c>
       <c r="E405" t="n">
         <v>6.95</v>
@@ -7863,13 +7863,13 @@
         <v>45604</v>
       </c>
       <c r="B406" t="n">
-        <v>6.85</v>
+        <v>6.99</v>
       </c>
       <c r="C406" t="n">
-        <v>7.27</v>
+        <v>7.05</v>
       </c>
       <c r="D406" t="n">
-        <v>6.31</v>
+        <v>7.29</v>
       </c>
       <c r="E406" t="n">
         <v>7</v>
@@ -7880,13 +7880,13 @@
         <v>45607</v>
       </c>
       <c r="B407" t="n">
-        <v>6.92</v>
+        <v>7.09</v>
       </c>
       <c r="C407" t="n">
-        <v>7.67</v>
+        <v>7.03</v>
       </c>
       <c r="D407" t="n">
-        <v>6.43</v>
+        <v>7.37</v>
       </c>
       <c r="E407" t="n">
         <v>6.89</v>
@@ -7897,13 +7897,13 @@
         <v>45608</v>
       </c>
       <c r="B408" t="n">
-        <v>6.95</v>
+        <v>7.09</v>
       </c>
       <c r="C408" t="n">
-        <v>7.36</v>
+        <v>7.18</v>
       </c>
       <c r="D408" t="n">
-        <v>6.44</v>
+        <v>7.17</v>
       </c>
       <c r="E408" t="n">
         <v>7.58</v>
@@ -7914,13 +7914,13 @@
         <v>45609</v>
       </c>
       <c r="B409" t="n">
-        <v>7.07</v>
+        <v>7.31</v>
       </c>
       <c r="C409" t="n">
-        <v>7.46</v>
+        <v>6.97</v>
       </c>
       <c r="D409" t="n">
-        <v>6.72</v>
+        <v>7.55</v>
       </c>
       <c r="E409" t="n">
         <v>8.34</v>
@@ -7931,13 +7931,13 @@
         <v>45610</v>
       </c>
       <c r="B410" t="n">
-        <v>7.25</v>
+        <v>7.71</v>
       </c>
       <c r="C410" t="n">
-        <v>7.5</v>
+        <v>7.22</v>
       </c>
       <c r="D410" t="n">
-        <v>7.07</v>
+        <v>8.16</v>
       </c>
       <c r="E410" t="n">
         <v>8.380000000000001</v>
@@ -7948,13 +7948,13 @@
         <v>45611</v>
       </c>
       <c r="B411" t="n">
-        <v>7.44</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C411" t="n">
-        <v>7.92</v>
+        <v>7.72</v>
       </c>
       <c r="D411" t="n">
-        <v>7.28</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E411" t="n">
         <v>7.64</v>
@@ -7965,13 +7965,13 @@
         <v>45614</v>
       </c>
       <c r="B412" t="n">
-        <v>7.49</v>
+        <v>7.98</v>
       </c>
       <c r="C412" t="n">
-        <v>7.55</v>
+        <v>7.56</v>
       </c>
       <c r="D412" t="n">
-        <v>7.12</v>
+        <v>7.89</v>
       </c>
       <c r="E412" t="n">
         <v>7.24</v>
@@ -7982,13 +7982,13 @@
         <v>45615</v>
       </c>
       <c r="B413" t="n">
-        <v>7.44</v>
+        <v>7.72</v>
       </c>
       <c r="C413" t="n">
-        <v>7.38</v>
+        <v>7.31</v>
       </c>
       <c r="D413" t="n">
-        <v>6.93</v>
+        <v>7.43</v>
       </c>
       <c r="E413" t="n">
         <v>7.22</v>
@@ -7999,13 +7999,13 @@
         <v>45616</v>
       </c>
       <c r="B414" t="n">
-        <v>7.38</v>
+        <v>7.54</v>
       </c>
       <c r="C414" t="n">
-        <v>7.22</v>
+        <v>7.15</v>
       </c>
       <c r="D414" t="n">
-        <v>6.83</v>
+        <v>7.32</v>
       </c>
       <c r="E414" t="n">
         <v>7.17</v>
@@ -8016,13 +8016,13 @@
         <v>45617</v>
       </c>
       <c r="B415" t="n">
-        <v>7.31</v>
+        <v>7.43</v>
       </c>
       <c r="C415" t="n">
-        <v>7.48</v>
+        <v>7.09</v>
       </c>
       <c r="D415" t="n">
-        <v>6.74</v>
+        <v>7.26</v>
       </c>
       <c r="E415" t="n">
         <v>7.4</v>
@@ -8033,13 +8033,13 @@
         <v>45618</v>
       </c>
       <c r="B416" t="n">
-        <v>7.28</v>
+        <v>7.42</v>
       </c>
       <c r="C416" t="n">
-        <v>7.74</v>
+        <v>7.05</v>
       </c>
       <c r="D416" t="n">
-        <v>6.77</v>
+        <v>7.36</v>
       </c>
       <c r="E416" t="n">
         <v>7.43</v>
@@ -8050,13 +8050,13 @@
         <v>45621</v>
       </c>
       <c r="B417" t="n">
-        <v>7.25</v>
+        <v>7.41</v>
       </c>
       <c r="C417" t="n">
-        <v>7.59</v>
+        <v>6.9</v>
       </c>
       <c r="D417" t="n">
-        <v>6.77</v>
+        <v>7.4</v>
       </c>
       <c r="E417" t="n">
         <v>7</v>
@@ -8067,13 +8067,13 @@
         <v>45622</v>
       </c>
       <c r="B418" t="n">
-        <v>7.16</v>
+        <v>7.25</v>
       </c>
       <c r="C418" t="n">
-        <v>7.59</v>
+        <v>6.75</v>
       </c>
       <c r="D418" t="n">
-        <v>6.58</v>
+        <v>7.03</v>
       </c>
       <c r="E418" t="n">
         <v>7.36</v>
@@ -8084,13 +8084,13 @@
         <v>45623</v>
       </c>
       <c r="B419" t="n">
-        <v>7.15</v>
+        <v>7.23</v>
       </c>
       <c r="C419" t="n">
-        <v>7.56</v>
+        <v>7.02</v>
       </c>
       <c r="D419" t="n">
-        <v>6.64</v>
+        <v>7.12</v>
       </c>
       <c r="E419" t="n">
         <v>7.23</v>
@@ -8101,13 +8101,13 @@
         <v>45624</v>
       </c>
       <c r="B420" t="n">
-        <v>7.14</v>
+        <v>7.28</v>
       </c>
       <c r="C420" t="n">
-        <v>7.31</v>
+        <v>7.02</v>
       </c>
       <c r="D420" t="n">
-        <v>6.62</v>
+        <v>7.24</v>
       </c>
       <c r="E420" t="n">
         <v>7.25</v>
@@ -8118,13 +8118,13 @@
         <v>45625</v>
       </c>
       <c r="B421" t="n">
-        <v>7.16</v>
+        <v>7.34</v>
       </c>
       <c r="C421" t="n">
-        <v>7.11</v>
+        <v>7.23</v>
       </c>
       <c r="D421" t="n">
-        <v>6.65</v>
+        <v>7.32</v>
       </c>
       <c r="E421" t="n">
         <v>7.3</v>
@@ -8135,13 +8135,13 @@
         <v>45628</v>
       </c>
       <c r="B422" t="n">
-        <v>7.19</v>
+        <v>7.38</v>
       </c>
       <c r="C422" t="n">
-        <v>7.06</v>
+        <v>7.47</v>
       </c>
       <c r="D422" t="n">
-        <v>6.73</v>
+        <v>7.36</v>
       </c>
       <c r="E422" t="n">
         <v>7.36</v>
@@ -8152,13 +8152,13 @@
         <v>45629</v>
       </c>
       <c r="B423" t="n">
-        <v>7.24</v>
+        <v>7.42</v>
       </c>
       <c r="C423" t="n">
-        <v>7.46</v>
+        <v>7.69</v>
       </c>
       <c r="D423" t="n">
-        <v>6.83</v>
+        <v>7.42</v>
       </c>
       <c r="E423" t="n">
         <v>7.62</v>
@@ -8169,13 +8169,13 @@
         <v>45630</v>
       </c>
       <c r="B424" t="n">
-        <v>7.35</v>
+        <v>7.53</v>
       </c>
       <c r="C424" t="n">
-        <v>7.59</v>
+        <v>7.98</v>
       </c>
       <c r="D424" t="n">
-        <v>7.01</v>
+        <v>7.68</v>
       </c>
       <c r="E424" t="n">
         <v>7.66</v>
@@ -8186,13 +8186,13 @@
         <v>45631</v>
       </c>
       <c r="B425" t="n">
-        <v>7.49</v>
+        <v>7.69</v>
       </c>
       <c r="C425" t="n">
-        <v>7.92</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D425" t="n">
-        <v>7.14</v>
+        <v>7.87</v>
       </c>
       <c r="E425" t="n">
         <v>7.59</v>
@@ -8203,13 +8203,13 @@
         <v>45632</v>
       </c>
       <c r="B426" t="n">
-        <v>7.61</v>
+        <v>7.81</v>
       </c>
       <c r="C426" t="n">
-        <v>8.050000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="D426" t="n">
-        <v>7.2</v>
+        <v>7.88</v>
       </c>
       <c r="E426" t="n">
         <v>7.57</v>
@@ -8220,13 +8220,13 @@
         <v>45635</v>
       </c>
       <c r="B427" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="C427" t="n">
-        <v>7.96</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D427" t="n">
-        <v>7.26</v>
+        <v>7.99</v>
       </c>
       <c r="E427" t="n">
         <v>7.53</v>
@@ -8237,13 +8237,13 @@
         <v>45636</v>
       </c>
       <c r="B428" t="n">
-        <v>7.76</v>
+        <v>7.87</v>
       </c>
       <c r="C428" t="n">
-        <v>8.1</v>
+        <v>8.01</v>
       </c>
       <c r="D428" t="n">
-        <v>7.27</v>
+        <v>7.83</v>
       </c>
       <c r="E428" t="n">
         <v>7.86</v>
@@ -8254,13 +8254,13 @@
         <v>45637</v>
       </c>
       <c r="B429" t="n">
-        <v>7.87</v>
+        <v>7.98</v>
       </c>
       <c r="C429" t="n">
-        <v>8.56</v>
+        <v>7.98</v>
       </c>
       <c r="D429" t="n">
-        <v>7.47</v>
+        <v>8.18</v>
       </c>
       <c r="E429" t="n">
         <v>7.79</v>
@@ -8271,13 +8271,13 @@
         <v>45638</v>
       </c>
       <c r="B430" t="n">
-        <v>7.92</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C430" t="n">
-        <v>8.41</v>
+        <v>7.93</v>
       </c>
       <c r="D430" t="n">
-        <v>7.52</v>
+        <v>8.25</v>
       </c>
       <c r="E430" t="n">
         <v>7.83</v>
@@ -8288,13 +8288,13 @@
         <v>45639</v>
       </c>
       <c r="B431" t="n">
-        <v>7.98</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C431" t="n">
-        <v>8.539999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="D431" t="n">
-        <v>7.57</v>
+        <v>8.23</v>
       </c>
       <c r="E431" t="n">
         <v>8.16</v>
@@ -8305,13 +8305,13 @@
         <v>45642</v>
       </c>
       <c r="B432" t="n">
-        <v>8.08</v>
+        <v>8.24</v>
       </c>
       <c r="C432" t="n">
-        <v>8.5</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D432" t="n">
-        <v>7.82</v>
+        <v>8.65</v>
       </c>
       <c r="E432" t="n">
         <v>8.220000000000001</v>
@@ -8322,13 +8322,13 @@
         <v>45643</v>
       </c>
       <c r="B433" t="n">
-        <v>8.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C433" t="n">
-        <v>8.59</v>
+        <v>8.02</v>
       </c>
       <c r="D433" t="n">
-        <v>7.94</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E433" t="n">
         <v>8.19</v>
@@ -8339,13 +8339,13 @@
         <v>45644</v>
       </c>
       <c r="B434" t="n">
-        <v>8.23</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C434" t="n">
-        <v>8.550000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D434" t="n">
-        <v>8.039999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="E434" t="n">
         <v>7.89</v>
@@ -8356,13 +8356,13 @@
         <v>45645</v>
       </c>
       <c r="B435" t="n">
-        <v>8.19</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C435" t="n">
-        <v>8.470000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D435" t="n">
-        <v>7.83</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E435" t="n">
         <v>8.01</v>
@@ -8373,13 +8373,13 @@
         <v>45646</v>
       </c>
       <c r="B436" t="n">
-        <v>8.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C436" t="n">
-        <v>8.42</v>
+        <v>7.93</v>
       </c>
       <c r="D436" t="n">
-        <v>7.85</v>
+        <v>8.43</v>
       </c>
       <c r="E436" t="n">
         <v>7.74</v>
@@ -8390,13 +8390,13 @@
         <v>45649</v>
       </c>
       <c r="B437" t="n">
-        <v>8.029999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="C437" t="n">
-        <v>8.16</v>
+        <v>7.47</v>
       </c>
       <c r="D437" t="n">
-        <v>7.5</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E437" t="n">
         <v>7.63</v>
@@ -8407,13 +8407,13 @@
         <v>45650</v>
       </c>
       <c r="B438" t="n">
-        <v>7.85</v>
+        <v>7.7</v>
       </c>
       <c r="C438" t="n">
-        <v>8.15</v>
+        <v>7.34</v>
       </c>
       <c r="D438" t="n">
-        <v>7.28</v>
+        <v>7.77</v>
       </c>
       <c r="E438" t="n">
         <v>7.25</v>
@@ -8424,13 +8424,13 @@
         <v>45651</v>
       </c>
       <c r="B439" t="n">
-        <v>7.62</v>
+        <v>7.5</v>
       </c>
       <c r="C439" t="n">
-        <v>8.07</v>
+        <v>7.27</v>
       </c>
       <c r="D439" t="n">
-        <v>7.01</v>
+        <v>7.49</v>
       </c>
       <c r="E439" t="n">
         <v>7.29</v>
@@ -8441,13 +8441,13 @@
         <v>45652</v>
       </c>
       <c r="B440" t="n">
-        <v>7.44</v>
+        <v>7.39</v>
       </c>
       <c r="C440" t="n">
-        <v>7.98</v>
+        <v>7.09</v>
       </c>
       <c r="D440" t="n">
-        <v>6.91</v>
+        <v>7.3</v>
       </c>
       <c r="E440" t="n">
         <v>7.12</v>
@@ -8458,13 +8458,13 @@
         <v>45653</v>
       </c>
       <c r="B441" t="n">
-        <v>7.27</v>
+        <v>7.29</v>
       </c>
       <c r="C441" t="n">
-        <v>7.83</v>
+        <v>7.16</v>
       </c>
       <c r="D441" t="n">
-        <v>6.74</v>
+        <v>7.11</v>
       </c>
       <c r="E441" t="n">
         <v>7.83</v>
@@ -8475,13 +8475,13 @@
         <v>45656</v>
       </c>
       <c r="B442" t="n">
-        <v>7.29</v>
+        <v>7.48</v>
       </c>
       <c r="C442" t="n">
-        <v>8.029999999999999</v>
+        <v>7.38</v>
       </c>
       <c r="D442" t="n">
-        <v>7</v>
+        <v>7.58</v>
       </c>
       <c r="E442" t="n">
         <v>7.73</v>
@@ -8492,13 +8492,13 @@
         <v>45657</v>
       </c>
       <c r="B443" t="n">
-        <v>7.29</v>
+        <v>7.66</v>
       </c>
       <c r="C443" t="n">
-        <v>8.02</v>
+        <v>7.61</v>
       </c>
       <c r="D443" t="n">
-        <v>7.06</v>
+        <v>7.79</v>
       </c>
       <c r="E443" t="n">
         <v>7.79</v>
@@ -8509,13 +8509,13 @@
         <v>45658</v>
       </c>
       <c r="B444" t="n">
-        <v>7.33</v>
+        <v>7.74</v>
       </c>
       <c r="C444" t="n">
-        <v>7.87</v>
+        <v>7.78</v>
       </c>
       <c r="D444" t="n">
-        <v>7.15</v>
+        <v>7.82</v>
       </c>
       <c r="E444" t="n">
         <v>7.37</v>
@@ -8526,13 +8526,13 @@
         <v>45659</v>
       </c>
       <c r="B445" t="n">
-        <v>7.3</v>
+        <v>7.64</v>
       </c>
       <c r="C445" t="n">
-        <v>7.57</v>
+        <v>7.72</v>
       </c>
       <c r="D445" t="n">
-        <v>6.98</v>
+        <v>7.52</v>
       </c>
       <c r="E445" t="n">
         <v>7.44</v>
@@ -8543,13 +8543,13 @@
         <v>45660</v>
       </c>
       <c r="B446" t="n">
-        <v>7.29</v>
+        <v>7.55</v>
       </c>
       <c r="C446" t="n">
-        <v>7.59</v>
+        <v>7.52</v>
       </c>
       <c r="D446" t="n">
-        <v>6.92</v>
+        <v>7.4</v>
       </c>
       <c r="E446" t="n">
         <v>6.9</v>
@@ -8560,13 +8560,13 @@
         <v>45663</v>
       </c>
       <c r="B447" t="n">
-        <v>7.2</v>
+        <v>7.35</v>
       </c>
       <c r="C447" t="n">
-        <v>7.33</v>
+        <v>7.48</v>
       </c>
       <c r="D447" t="n">
-        <v>6.65</v>
+        <v>7.04</v>
       </c>
       <c r="E447" t="n">
         <v>6.85</v>
@@ -8577,13 +8577,13 @@
         <v>45664</v>
       </c>
       <c r="B448" t="n">
-        <v>7.11</v>
+        <v>7.17</v>
       </c>
       <c r="C448" t="n">
-        <v>7.26</v>
+        <v>7.02</v>
       </c>
       <c r="D448" t="n">
-        <v>6.47</v>
+        <v>6.8</v>
       </c>
       <c r="E448" t="n">
         <v>7.04</v>
@@ -8594,13 +8594,13 @@
         <v>45665</v>
       </c>
       <c r="B449" t="n">
-        <v>7.07</v>
+        <v>7.13</v>
       </c>
       <c r="C449" t="n">
-        <v>7.2</v>
+        <v>7.15</v>
       </c>
       <c r="D449" t="n">
-        <v>6.46</v>
+        <v>6.83</v>
       </c>
       <c r="E449" t="n">
         <v>6.88</v>
@@ -8611,13 +8611,13 @@
         <v>45666</v>
       </c>
       <c r="B450" t="n">
-        <v>6.99</v>
+        <v>7.07</v>
       </c>
       <c r="C450" t="n">
-        <v>7.21</v>
+        <v>6.75</v>
       </c>
       <c r="D450" t="n">
-        <v>6.33</v>
+        <v>6.69</v>
       </c>
       <c r="E450" t="n">
         <v>6.83</v>
@@ -8628,13 +8628,13 @@
         <v>45667</v>
       </c>
       <c r="B451" t="n">
-        <v>6.93</v>
+        <v>7</v>
       </c>
       <c r="C451" t="n">
-        <v>7.16</v>
+        <v>6.7</v>
       </c>
       <c r="D451" t="n">
-        <v>6.25</v>
+        <v>6.63</v>
       </c>
       <c r="E451" t="n">
         <v>6.57</v>
@@ -8645,13 +8645,13 @@
         <v>45670</v>
       </c>
       <c r="B452" t="n">
-        <v>6.85</v>
+        <v>6.92</v>
       </c>
       <c r="C452" t="n">
-        <v>6.92</v>
+        <v>6.47</v>
       </c>
       <c r="D452" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="E452" t="n">
         <v>6.56</v>
@@ -8662,13 +8662,13 @@
         <v>45671</v>
       </c>
       <c r="B453" t="n">
-        <v>6.79</v>
+        <v>6.87</v>
       </c>
       <c r="C453" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D453" t="n">
         <v>6.48</v>
-      </c>
-      <c r="D453" t="n">
-        <v>6.04</v>
       </c>
       <c r="E453" t="n">
         <v>6.86</v>
@@ -8679,13 +8679,13 @@
         <v>45672</v>
       </c>
       <c r="B454" t="n">
-        <v>6.8</v>
+        <v>6.92</v>
       </c>
       <c r="C454" t="n">
-        <v>6.56</v>
+        <v>6.62</v>
       </c>
       <c r="D454" t="n">
-        <v>6.08</v>
+        <v>6.58</v>
       </c>
       <c r="E454" t="n">
         <v>6.77</v>
@@ -8696,13 +8696,13 @@
         <v>45673</v>
       </c>
       <c r="B455" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C455" t="n">
         <v>6.81</v>
       </c>
-      <c r="C455" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D455" t="n">
-        <v>6.12</v>
+        <v>6.68</v>
       </c>
       <c r="E455" t="n">
         <v>6.9</v>
@@ -8713,13 +8713,13 @@
         <v>45674</v>
       </c>
       <c r="B456" t="n">
-        <v>6.85</v>
+        <v>7.01</v>
       </c>
       <c r="C456" t="n">
-        <v>6.97</v>
+        <v>6.82</v>
       </c>
       <c r="D456" t="n">
-        <v>6.17</v>
+        <v>6.68</v>
       </c>
       <c r="E456" t="n">
         <v>6.97</v>
@@ -8730,13 +8730,13 @@
         <v>45677</v>
       </c>
       <c r="B457" t="n">
-        <v>6.92</v>
+        <v>7.1</v>
       </c>
       <c r="C457" t="n">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="D457" t="n">
-        <v>6.3</v>
+        <v>6.88</v>
       </c>
       <c r="E457" t="n">
         <v>6.94</v>
@@ -8747,13 +8747,13 @@
         <v>45678</v>
       </c>
       <c r="B458" t="n">
-        <v>6.98</v>
+        <v>7.17</v>
       </c>
       <c r="C458" t="n">
-        <v>7.26</v>
+        <v>6.76</v>
       </c>
       <c r="D458" t="n">
-        <v>6.36</v>
+        <v>6.96</v>
       </c>
       <c r="E458" t="n">
         <v>7.24</v>
@@ -8764,13 +8764,13 @@
         <v>45679</v>
       </c>
       <c r="B459" t="n">
-        <v>7.09</v>
+        <v>7.33</v>
       </c>
       <c r="C459" t="n">
-        <v>7.26</v>
+        <v>6.9</v>
       </c>
       <c r="D459" t="n">
-        <v>6.56</v>
+        <v>7.33</v>
       </c>
       <c r="E459" t="n">
         <v>7.21</v>
@@ -8781,13 +8781,13 @@
         <v>45680</v>
       </c>
       <c r="B460" t="n">
-        <v>7.18</v>
+        <v>7.43</v>
       </c>
       <c r="C460" t="n">
-        <v>7.31</v>
+        <v>6.83</v>
       </c>
       <c r="D460" t="n">
-        <v>6.64</v>
+        <v>7.38</v>
       </c>
       <c r="E460" t="n">
         <v>6.92</v>
@@ -8798,13 +8798,13 @@
         <v>45681</v>
       </c>
       <c r="B461" t="n">
-        <v>7.19</v>
+        <v>7.37</v>
       </c>
       <c r="C461" t="n">
-        <v>7.1</v>
+        <v>7.02</v>
       </c>
       <c r="D461" t="n">
-        <v>6.54</v>
+        <v>7.15</v>
       </c>
       <c r="E461" t="n">
         <v>6.88</v>
@@ -8821,7 +8821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8870,6 +8870,31 @@
           <t>训练时长(分钟)</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>总数据天数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>训练集天数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>对照集天数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>训练集比例</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>对照集比例</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8884,7 +8909,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8894,7 +8919,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8909,7 +8934,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2377</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -8921,22 +8965,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8951,7 +8995,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2377</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K3" t="n">
+        <v>476</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -8968,17 +9031,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8993,7 +9056,26 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2377</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K4" t="n">
+        <v>476</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -9086,12 +9168,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>filters: [64, 32, 16], kernel_size: 3, dropout: 0.2, epochs: 100, batch_size: 32, optimizer: adam, loss: mse</t>
+          <t>filters: 64, kernel_size: 3, dropout: 0.2, epochs: 100, batch_size: 32, learning_rate: 0.001, patience: 15, reduce_lr_patience: 8, reduce_lr_factor: 0.5, min_lr: 1e-06, optimizer: adam, loss: huber</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
